--- a/NondVahi2018.xlsx
+++ b/NondVahi2018.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SA292082\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sanket\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Dainandin Nond" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Monthly Distribution" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="32">
   <si>
     <t>Sum</t>
   </si>
@@ -109,12 +109,21 @@
   <si>
     <t>33 Sadhan Shibir November</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Remaining Days</t>
+  </si>
+  <si>
+    <t>Remaining Average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +168,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF454545"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="10">
@@ -413,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -460,6 +475,15 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +507,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -544,14 +568,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6000</c:v>
+                  <c:v>684000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2094000</c:v>
+                  <c:v>1416000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0E4-4070-A3D1-CA23F7752806}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -591,7 +620,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -652,9 +681,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -717,16 +744,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -758,6 +785,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0525-4F8E-8BD8-9FF1427170F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -772,7 +804,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -789,7 +820,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -896,16 +927,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -938,6 +969,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC8A-40EA-8375-BD5DD657E78B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -1021,7 +1057,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1056,7 +1098,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1088,7 +1136,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1272,6 +1326,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1307,6 +1378,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1483,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,809 +1680,1133 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>42705</v>
+        <v>43070</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="2">
-        <v>42722</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>43087</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
       <c r="E2" s="2">
-        <v>42736</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>43101</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
       <c r="G2" s="2">
-        <v>42753</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>43118</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
       <c r="I2" s="2">
-        <v>42767</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>43132</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
       <c r="K2" s="2">
-        <v>42784</v>
-      </c>
-      <c r="L2" s="1"/>
+        <v>43149</v>
+      </c>
+      <c r="L2" s="1">
+        <v>21</v>
+      </c>
       <c r="M2" s="2">
-        <v>42795</v>
-      </c>
-      <c r="N2" s="1"/>
+        <v>43160</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5</v>
+      </c>
       <c r="O2" s="2">
-        <v>42812</v>
-      </c>
-      <c r="P2" s="1"/>
+        <v>43177</v>
+      </c>
+      <c r="P2" s="1">
+        <v>5</v>
+      </c>
       <c r="Q2" s="2">
-        <v>42826</v>
-      </c>
-      <c r="R2" s="1"/>
+        <v>43191</v>
+      </c>
+      <c r="R2" s="1">
+        <v>6</v>
+      </c>
       <c r="S2" s="2">
-        <v>42843</v>
-      </c>
-      <c r="T2" s="1"/>
+        <v>43208</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
       <c r="U2" s="2">
-        <v>42856</v>
+        <v>43221</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="2">
-        <v>42873</v>
-      </c>
-      <c r="X2" s="1"/>
+        <v>43238</v>
+      </c>
+      <c r="X2" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>42706</v>
+        <v>43071</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="2">
-        <v>42723</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>43088</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
       <c r="E3" s="2">
-        <v>42737</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>43102</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
       <c r="G3" s="2">
-        <v>42754</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>43119</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
       <c r="I3" s="2">
-        <v>42768</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>43133</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
       <c r="K3" s="2">
-        <v>42785</v>
-      </c>
-      <c r="L3" s="1"/>
+        <v>43150</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
       <c r="M3" s="2">
-        <v>42796</v>
-      </c>
-      <c r="N3" s="1"/>
+        <v>43161</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5</v>
+      </c>
       <c r="O3" s="2">
-        <v>42813</v>
-      </c>
-      <c r="P3" s="1"/>
+        <v>43178</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
       <c r="Q3" s="2">
-        <v>42827</v>
-      </c>
-      <c r="R3" s="1"/>
+        <v>43192</v>
+      </c>
+      <c r="R3" s="1">
+        <v>3</v>
+      </c>
       <c r="S3" s="2">
-        <v>42844</v>
-      </c>
-      <c r="T3" s="1"/>
+        <v>43209</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
       <c r="U3" s="2">
-        <v>42857</v>
-      </c>
-      <c r="V3" s="1"/>
+        <v>43222</v>
+      </c>
+      <c r="V3" s="1">
+        <v>18</v>
+      </c>
       <c r="W3" s="2">
-        <v>42874</v>
-      </c>
-      <c r="X3" s="1"/>
+        <v>43239</v>
+      </c>
+      <c r="X3" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>42707</v>
+        <v>43072</v>
       </c>
       <c r="B4" s="1">
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>42724</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>43089</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4" s="2">
-        <v>42738</v>
+        <v>43103</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2">
-        <v>42755</v>
+        <v>43120</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2">
-        <v>42769</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>43134</v>
+      </c>
+      <c r="J4" s="1">
+        <v>17</v>
+      </c>
       <c r="K4" s="2">
-        <v>42786</v>
-      </c>
-      <c r="L4" s="1"/>
+        <v>43151</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
       <c r="M4" s="2">
-        <v>42797</v>
-      </c>
-      <c r="N4" s="1"/>
+        <v>43162</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
       <c r="O4" s="2">
-        <v>42814</v>
-      </c>
-      <c r="P4" s="1"/>
+        <v>43179</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
       <c r="Q4" s="2">
-        <v>42828</v>
-      </c>
-      <c r="R4" s="1"/>
+        <v>43193</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3</v>
+      </c>
       <c r="S4" s="2">
-        <v>42845</v>
-      </c>
-      <c r="T4" s="1"/>
+        <v>43210</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
       <c r="U4" s="2">
-        <v>42858</v>
-      </c>
-      <c r="V4" s="1"/>
+        <v>43223</v>
+      </c>
+      <c r="V4" s="1">
+        <v>3</v>
+      </c>
       <c r="W4" s="2">
-        <v>42875</v>
-      </c>
-      <c r="X4" s="1"/>
+        <v>43240</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>42708</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>43073</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
       <c r="C5" s="2">
-        <v>42725</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>43090</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5" s="2">
-        <v>42739</v>
+        <v>43104</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2">
-        <v>42756</v>
+        <v>43121</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="2">
-        <v>42770</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>43135</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
       <c r="K5" s="2">
-        <v>42787</v>
-      </c>
-      <c r="L5" s="1"/>
+        <v>43152</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
       <c r="M5" s="2">
-        <v>42798</v>
-      </c>
-      <c r="N5" s="1"/>
+        <v>43163</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
       <c r="O5" s="2">
-        <v>42815</v>
-      </c>
-      <c r="P5" s="1"/>
+        <v>43180</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
       <c r="Q5" s="2">
-        <v>42829</v>
-      </c>
-      <c r="R5" s="1"/>
+        <v>43194</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
       <c r="S5" s="2">
-        <v>42846</v>
-      </c>
-      <c r="T5" s="1"/>
+        <v>43211</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
       <c r="U5" s="2">
-        <v>42859</v>
-      </c>
-      <c r="V5" s="1"/>
+        <v>43224</v>
+      </c>
+      <c r="V5" s="1">
+        <v>9</v>
+      </c>
       <c r="W5" s="2">
-        <v>42876</v>
-      </c>
-      <c r="X5" s="1"/>
+        <v>43241</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>42709</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>43074</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
       <c r="C6" s="2">
-        <v>42726</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>43091</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6" s="2">
-        <v>42740</v>
+        <v>43105</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2">
-        <v>42757</v>
+        <v>43122</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2">
-        <v>42771</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>43136</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
       <c r="K6" s="2">
-        <v>42788</v>
-      </c>
-      <c r="L6" s="1"/>
+        <v>43153</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
       <c r="M6" s="2">
-        <v>42799</v>
-      </c>
-      <c r="N6" s="1"/>
+        <v>43164</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
       <c r="O6" s="2">
-        <v>42816</v>
-      </c>
-      <c r="P6" s="1"/>
+        <v>43181</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2</v>
+      </c>
       <c r="Q6" s="2">
-        <v>42830</v>
-      </c>
-      <c r="R6" s="1"/>
+        <v>43195</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
       <c r="S6" s="2">
-        <v>42847</v>
-      </c>
-      <c r="T6" s="1"/>
+        <v>43212</v>
+      </c>
+      <c r="T6" s="1">
+        <v>15</v>
+      </c>
       <c r="U6" s="2">
-        <v>42860</v>
-      </c>
-      <c r="V6" s="1"/>
+        <v>43225</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
       <c r="W6" s="2">
-        <v>42877</v>
-      </c>
-      <c r="X6" s="1"/>
+        <v>43242</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>42710</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>43075</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
       <c r="C7" s="2">
-        <v>42727</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>43092</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
       <c r="E7" s="2">
-        <v>42741</v>
+        <v>43106</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2">
-        <v>42758</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>43123</v>
+      </c>
+      <c r="H7" s="1">
+        <v>15</v>
+      </c>
       <c r="I7" s="2">
-        <v>42772</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>43137</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
       <c r="K7" s="2">
-        <v>42789</v>
-      </c>
-      <c r="L7" s="1"/>
+        <v>43154</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
       <c r="M7" s="2">
-        <v>42800</v>
-      </c>
-      <c r="N7" s="1"/>
+        <v>43165</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
       <c r="O7" s="2">
-        <v>42817</v>
-      </c>
-      <c r="P7" s="1"/>
+        <v>43182</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2</v>
+      </c>
       <c r="Q7" s="2">
-        <v>42831</v>
-      </c>
-      <c r="R7" s="1"/>
+        <v>43196</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
       <c r="S7" s="2">
-        <v>42848</v>
-      </c>
-      <c r="T7" s="1"/>
+        <v>43213</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
       <c r="U7" s="2">
-        <v>42861</v>
-      </c>
-      <c r="V7" s="1"/>
+        <v>43226</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
       <c r="W7" s="2">
-        <v>42878</v>
-      </c>
-      <c r="X7" s="1"/>
+        <v>43243</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>42711</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>43076</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
       <c r="C8" s="2">
-        <v>42728</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>43093</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
       <c r="E8" s="2">
-        <v>42742</v>
+        <v>43107</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2">
-        <v>42759</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>43124</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
       <c r="I8" s="2">
-        <v>42773</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>43138</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
       <c r="K8" s="2">
-        <v>42790</v>
-      </c>
-      <c r="L8" s="1"/>
+        <v>43155</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
       <c r="M8" s="2">
-        <v>42801</v>
-      </c>
-      <c r="N8" s="1"/>
+        <v>43166</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2</v>
+      </c>
       <c r="O8" s="2">
-        <v>42818</v>
-      </c>
-      <c r="P8" s="1"/>
+        <v>43183</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
       <c r="Q8" s="2">
-        <v>42832</v>
-      </c>
-      <c r="R8" s="1"/>
+        <v>43197</v>
+      </c>
+      <c r="R8" s="1">
+        <v>23</v>
+      </c>
       <c r="S8" s="2">
-        <v>42849</v>
-      </c>
-      <c r="T8" s="1"/>
+        <v>43214</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
       <c r="U8" s="2">
-        <v>42862</v>
-      </c>
-      <c r="V8" s="1"/>
+        <v>43227</v>
+      </c>
+      <c r="V8" s="1">
+        <v>6</v>
+      </c>
       <c r="W8" s="2">
-        <v>42879</v>
-      </c>
-      <c r="X8" s="1"/>
+        <v>43244</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>42712</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>43077</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
       <c r="C9" s="2">
-        <v>42729</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>43094</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
       <c r="E9" s="2">
-        <v>42743</v>
+        <v>43108</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2">
-        <v>42760</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>43125</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
       <c r="I9" s="2">
-        <v>42774</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>43139</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="2">
-        <v>42791</v>
-      </c>
-      <c r="L9" s="1"/>
+        <v>43156</v>
+      </c>
+      <c r="L9" s="1">
+        <v>18</v>
+      </c>
       <c r="M9" s="2">
-        <v>42802</v>
-      </c>
-      <c r="N9" s="1"/>
+        <v>43167</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2</v>
+      </c>
       <c r="O9" s="2">
-        <v>42819</v>
-      </c>
-      <c r="P9" s="1"/>
+        <v>43184</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
       <c r="Q9" s="2">
-        <v>42833</v>
-      </c>
-      <c r="R9" s="1"/>
+        <v>43198</v>
+      </c>
+      <c r="R9" s="1">
+        <v>14</v>
+      </c>
       <c r="S9" s="2">
-        <v>42850</v>
-      </c>
-      <c r="T9" s="1"/>
+        <v>43215</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
       <c r="U9" s="2">
-        <v>42863</v>
-      </c>
-      <c r="V9" s="1"/>
+        <v>43228</v>
+      </c>
+      <c r="V9" s="1">
+        <v>8</v>
+      </c>
       <c r="W9" s="2">
-        <v>42880</v>
-      </c>
-      <c r="X9" s="1"/>
+        <v>43245</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>42713</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>43078</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
       <c r="C10" s="2">
-        <v>42730</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>43095</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
       <c r="E10" s="2">
-        <v>42744</v>
+        <v>43109</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2">
-        <v>42761</v>
+        <v>43126</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="2">
-        <v>42775</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>43140</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
       <c r="K10" s="2">
-        <v>42792</v>
-      </c>
-      <c r="L10" s="1"/>
+        <v>43157</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
       <c r="M10" s="2">
-        <v>42803</v>
-      </c>
-      <c r="N10" s="1"/>
+        <v>43168</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
       <c r="O10" s="2">
-        <v>42820</v>
-      </c>
-      <c r="P10" s="1"/>
+        <v>43185</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
       <c r="Q10" s="2">
-        <v>42834</v>
-      </c>
-      <c r="R10" s="1"/>
+        <v>43199</v>
+      </c>
+      <c r="R10" s="1">
+        <v>3</v>
+      </c>
       <c r="S10" s="2">
-        <v>42851</v>
-      </c>
-      <c r="T10" s="1"/>
+        <v>43216</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
       <c r="U10" s="2">
-        <v>42864</v>
-      </c>
-      <c r="V10" s="1"/>
+        <v>43229</v>
+      </c>
+      <c r="V10" s="1">
+        <v>3</v>
+      </c>
       <c r="W10" s="2">
-        <v>42881</v>
-      </c>
-      <c r="X10" s="1"/>
+        <v>43246</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>42714</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>43079</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15</v>
+      </c>
       <c r="C11" s="2">
-        <v>42731</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>43096</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
       <c r="E11" s="2">
-        <v>42745</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>43110</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
       <c r="G11" s="2">
-        <v>42762</v>
+        <v>43127</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="2">
-        <v>42776</v>
-      </c>
-      <c r="J11" s="1"/>
+        <v>43141</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
       <c r="K11" s="2">
-        <v>42793</v>
-      </c>
-      <c r="L11" s="1"/>
+        <v>43158</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5</v>
+      </c>
       <c r="M11" s="2">
-        <v>42804</v>
-      </c>
-      <c r="N11" s="1"/>
+        <v>43169</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
       <c r="O11" s="2">
-        <v>42821</v>
-      </c>
-      <c r="P11" s="1"/>
+        <v>43186</v>
+      </c>
+      <c r="P11" s="1">
+        <v>7</v>
+      </c>
       <c r="Q11" s="2">
-        <v>42835</v>
-      </c>
-      <c r="R11" s="1"/>
+        <v>43200</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
       <c r="S11" s="2">
-        <v>42852</v>
-      </c>
-      <c r="T11" s="1"/>
+        <v>43217</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
       <c r="U11" s="2">
-        <v>42865</v>
-      </c>
-      <c r="V11" s="1"/>
+        <v>43230</v>
+      </c>
+      <c r="V11" s="1">
+        <v>2</v>
+      </c>
       <c r="W11" s="2">
-        <v>42882</v>
-      </c>
-      <c r="X11" s="1"/>
+        <v>43247</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>42715</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>43080</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
       <c r="C12" s="2">
-        <v>42732</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>43097</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
       <c r="E12" s="2">
-        <v>42746</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>43111</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="2">
-        <v>42763</v>
+        <v>43128</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2">
-        <v>42777</v>
-      </c>
-      <c r="J12" s="1"/>
+        <v>43142</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
       <c r="K12" s="7">
-        <v>42794</v>
-      </c>
-      <c r="L12" s="8"/>
+        <v>43159</v>
+      </c>
+      <c r="L12" s="8">
+        <v>5</v>
+      </c>
       <c r="M12" s="2">
-        <v>42805</v>
-      </c>
-      <c r="N12" s="1"/>
+        <v>43170</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5</v>
+      </c>
       <c r="O12" s="2">
-        <v>42822</v>
-      </c>
-      <c r="P12" s="1"/>
+        <v>43187</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4</v>
+      </c>
       <c r="Q12" s="2">
-        <v>42836</v>
-      </c>
-      <c r="R12" s="1"/>
+        <v>43201</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
       <c r="S12" s="2">
-        <v>42853</v>
-      </c>
-      <c r="T12" s="1"/>
+        <v>43218</v>
+      </c>
+      <c r="T12" s="1">
+        <v>20</v>
+      </c>
       <c r="U12" s="2">
-        <v>42866</v>
-      </c>
-      <c r="V12" s="1"/>
+        <v>43231</v>
+      </c>
+      <c r="V12" s="1">
+        <v>7</v>
+      </c>
       <c r="W12" s="2">
-        <v>42883</v>
-      </c>
-      <c r="X12" s="1"/>
+        <v>43248</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>42716</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>43081</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
       <c r="C13" s="2">
-        <v>42733</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>43098</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
       <c r="E13" s="2">
-        <v>42747</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>43112</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="2">
-        <v>42764</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>43129</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
       <c r="I13" s="2">
-        <v>42778</v>
-      </c>
-      <c r="J13" s="6"/>
+        <v>43143</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2</v>
+      </c>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
       <c r="M13" s="10">
-        <v>42806</v>
-      </c>
-      <c r="N13" s="1"/>
+        <v>43171</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5</v>
+      </c>
       <c r="O13" s="2">
-        <v>42823</v>
-      </c>
-      <c r="P13" s="1"/>
+        <v>43188</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2</v>
+      </c>
       <c r="Q13" s="2">
-        <v>42837</v>
-      </c>
-      <c r="R13" s="1"/>
+        <v>43202</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
       <c r="S13" s="2">
-        <v>42854</v>
-      </c>
-      <c r="T13" s="1"/>
+        <v>43219</v>
+      </c>
+      <c r="T13" s="1">
+        <v>19</v>
+      </c>
       <c r="U13" s="2">
-        <v>42867</v>
-      </c>
-      <c r="V13" s="1"/>
+        <v>43232</v>
+      </c>
+      <c r="V13" s="1">
+        <v>14</v>
+      </c>
       <c r="W13" s="2">
-        <v>42884</v>
-      </c>
-      <c r="X13" s="1"/>
+        <v>43249</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>42717</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>43082</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
       <c r="C14" s="2">
-        <v>42734</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>43099</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11</v>
+      </c>
       <c r="E14" s="2">
-        <v>42748</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>43113</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
       <c r="G14" s="2">
-        <v>42765</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>43130</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
       <c r="I14" s="2">
-        <v>42779</v>
-      </c>
-      <c r="J14" s="6"/>
+        <v>43144</v>
+      </c>
+      <c r="J14" s="6">
+        <v>4</v>
+      </c>
       <c r="K14" s="13"/>
       <c r="L14" s="14"/>
       <c r="M14" s="10">
-        <v>42807</v>
-      </c>
-      <c r="N14" s="1"/>
+        <v>43172</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
       <c r="O14" s="2">
-        <v>42824</v>
-      </c>
-      <c r="P14" s="1"/>
+        <v>43189</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2</v>
+      </c>
       <c r="Q14" s="2">
-        <v>42838</v>
-      </c>
-      <c r="R14" s="1"/>
+        <v>43203</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
       <c r="S14" s="7">
-        <v>42855</v>
+        <v>43220</v>
       </c>
       <c r="T14" s="8"/>
       <c r="U14" s="2">
-        <v>42868</v>
-      </c>
-      <c r="V14" s="1"/>
+        <v>43233</v>
+      </c>
+      <c r="V14" s="1">
+        <v>14</v>
+      </c>
       <c r="W14" s="2">
-        <v>42885</v>
-      </c>
-      <c r="X14" s="1"/>
+        <v>43250</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>42718</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2">
-        <v>42735</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>43083</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>43100</v>
+      </c>
+      <c r="D15" s="8">
+        <v>11</v>
+      </c>
       <c r="E15" s="2">
-        <v>42749</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>43114</v>
+      </c>
+      <c r="F15" s="1">
+        <v>18</v>
+      </c>
       <c r="G15" s="7">
-        <v>42766</v>
+        <v>43131</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="2">
-        <v>42780</v>
-      </c>
-      <c r="J15" s="6"/>
+        <v>43145</v>
+      </c>
+      <c r="J15" s="6">
+        <v>9</v>
+      </c>
       <c r="K15" s="13"/>
       <c r="L15" s="14"/>
       <c r="M15" s="10">
-        <v>42808</v>
-      </c>
-      <c r="N15" s="1"/>
+        <v>43173</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
       <c r="O15" s="7">
-        <v>42825</v>
-      </c>
-      <c r="P15" s="8"/>
+        <v>43190</v>
+      </c>
+      <c r="P15" s="8">
+        <v>19</v>
+      </c>
       <c r="Q15" s="2">
-        <v>42839</v>
-      </c>
-      <c r="R15" s="6"/>
+        <v>43204</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
       <c r="S15" s="11"/>
       <c r="T15" s="12"/>
       <c r="U15" s="10">
-        <v>42869</v>
-      </c>
-      <c r="V15" s="1"/>
+        <v>43234</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
       <c r="W15" s="7">
-        <v>42886</v>
-      </c>
-      <c r="X15" s="8"/>
+        <v>43251</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>42719</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>43084</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="2">
-        <v>42750</v>
-      </c>
-      <c r="F16" s="6"/>
+      <c r="E16" s="10">
+        <v>43115</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
       <c r="I16" s="10">
-        <v>42781</v>
-      </c>
-      <c r="J16" s="6"/>
+        <v>43146</v>
+      </c>
+      <c r="J16" s="6">
+        <v>6</v>
+      </c>
       <c r="K16" s="13"/>
       <c r="L16" s="14"/>
       <c r="M16" s="10">
-        <v>42809</v>
-      </c>
-      <c r="N16" s="6"/>
+        <v>43174</v>
+      </c>
+      <c r="N16" s="6">
+        <v>2</v>
+      </c>
       <c r="O16" s="11"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="10">
-        <v>42840</v>
-      </c>
-      <c r="R16" s="6"/>
+        <v>43205</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
       <c r="S16" s="13"/>
       <c r="T16" s="14"/>
       <c r="U16" s="10">
-        <v>42870</v>
-      </c>
-      <c r="V16" s="6"/>
+        <v>43235</v>
+      </c>
+      <c r="V16" s="6">
+        <v>2</v>
+      </c>
       <c r="W16" s="17"/>
       <c r="X16" s="12"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>42720</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>43085</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="2">
-        <v>42751</v>
-      </c>
-      <c r="F17" s="6"/>
+      <c r="E17" s="10">
+        <v>43116</v>
+      </c>
+      <c r="F17" s="6">
+        <v>8</v>
+      </c>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
       <c r="I17" s="10">
-        <v>42782</v>
-      </c>
-      <c r="J17" s="6"/>
+        <v>43147</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2</v>
+      </c>
       <c r="K17" s="13"/>
       <c r="L17" s="14"/>
       <c r="M17" s="10">
-        <v>42810</v>
-      </c>
-      <c r="N17" s="6"/>
+        <v>43175</v>
+      </c>
+      <c r="N17" s="6">
+        <v>2</v>
+      </c>
       <c r="O17" s="13"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="10">
-        <v>42841</v>
-      </c>
-      <c r="R17" s="6"/>
+        <v>43206</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
       <c r="S17" s="13"/>
       <c r="T17" s="14"/>
       <c r="U17" s="10">
-        <v>42871</v>
-      </c>
-      <c r="V17" s="6"/>
+        <v>43236</v>
+      </c>
+      <c r="V17" s="6">
+        <v>3</v>
+      </c>
       <c r="W17" s="18"/>
       <c r="X17" s="14"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>42721</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>43086</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="2">
-        <v>42752</v>
-      </c>
-      <c r="F18" s="6"/>
+      <c r="E18" s="10">
+        <v>43117</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3</v>
+      </c>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="10">
-        <v>42783</v>
+        <v>43148</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="15"/>
       <c r="L18" s="16"/>
       <c r="M18" s="10">
-        <v>42811</v>
-      </c>
-      <c r="N18" s="6"/>
+        <v>43176</v>
+      </c>
+      <c r="N18" s="6">
+        <v>5</v>
+      </c>
       <c r="O18" s="15"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="10">
-        <v>42842</v>
-      </c>
-      <c r="R18" s="6"/>
+        <v>43207</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
       <c r="S18" s="15"/>
       <c r="T18" s="16"/>
       <c r="U18" s="10">
-        <v>42872</v>
-      </c>
-      <c r="V18" s="6"/>
+        <v>43237</v>
+      </c>
+      <c r="V18" s="6">
+        <v>1</v>
+      </c>
       <c r="W18" s="19"/>
       <c r="X18" s="16"/>
     </row>
@@ -2404,84 +2816,84 @@
       </c>
       <c r="B19" s="4">
         <f>SUM(B2:B18)</f>
-        <v>6</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
+        <v>38</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
         <f>SUM(D2:D18)</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="4">
         <f>SUM(F2:F18)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" ref="H19" si="0">SUM(H2:H18)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" ref="J19" si="1">SUM(J2:J18)</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" ref="L19" si="2">SUM(L2:L18)</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" ref="N19" si="3">SUM(N2:N18)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" ref="P19" si="4">SUM(P2:P18)</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="R19" s="4">
         <f t="shared" ref="R19" si="5">SUM(R2:R18)</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="S19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="T19" s="9">
         <f t="shared" ref="T19" si="6">SUM(T2:T18)</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="V19" s="4">
         <f t="shared" ref="V19" si="7">SUM(V2:V18)</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="W19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="X19" s="9">
         <f t="shared" ref="X19" si="8">SUM(X2:X18)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -2490,84 +2902,84 @@
       </c>
       <c r="B20" s="21">
         <f>AVERAGE(B2:B18)</f>
-        <v>6</v>
+        <v>2.5333333333333332</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="21" t="e">
+      <c r="D20" s="21">
         <f>AVERAGE(D2:D18)</f>
-        <v>#DIV/0!</v>
+        <v>5.4285714285714288</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="21" t="e">
+      <c r="F20" s="21">
         <f>AVERAGE(F2:F18)</f>
-        <v>#DIV/0!</v>
+        <v>5.5</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="21" t="e">
+      <c r="H20" s="21">
         <f t="shared" ref="H20" si="9">AVERAGE(H2:H18)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="21" t="e">
+      <c r="J20" s="21">
         <f t="shared" ref="J20" si="10">AVERAGE(J2:J18)</f>
-        <v>#DIV/0!</v>
+        <v>4.25</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="21" t="e">
+      <c r="L20" s="21">
         <f t="shared" ref="L20" si="11">AVERAGE(L2:L18)</f>
-        <v>#DIV/0!</v>
+        <v>5.7272727272727275</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N20" s="21" t="e">
+      <c r="N20" s="21">
         <f t="shared" ref="N20" si="12">AVERAGE(N2:N18)</f>
-        <v>#DIV/0!</v>
+        <v>3.2352941176470589</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P20" s="21" t="e">
+      <c r="P20" s="21">
         <f t="shared" ref="P20" si="13">AVERAGE(P2:P18)</f>
-        <v>#DIV/0!</v>
+        <v>3.7142857142857144</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R20" s="21" t="e">
+      <c r="R20" s="21">
         <f t="shared" ref="R20" si="14">AVERAGE(R2:R18)</f>
-        <v>#DIV/0!</v>
+        <v>3.7058823529411766</v>
       </c>
       <c r="S20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="T20" s="21" t="e">
+      <c r="T20" s="21">
         <f t="shared" ref="T20" si="15">AVERAGE(T2:T18)</f>
-        <v>#DIV/0!</v>
+        <v>5.25</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="V20" s="21" t="e">
+      <c r="V20" s="21">
         <f t="shared" ref="V20:X20" si="16">AVERAGE(V2:V18)</f>
-        <v>#DIV/0!</v>
+        <v>5.8125</v>
       </c>
       <c r="W20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="X20" s="21" t="e">
+      <c r="X20" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>1.6428571428571428</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -2576,42 +2988,42 @@
       </c>
       <c r="D21" s="22">
         <f>B19+D19</f>
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" ref="H21" si="17">F19+H19</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>5</v>
       </c>
       <c r="L21" s="22">
         <f t="shared" ref="L21" si="18">J19+L19</f>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="O21" s="22" t="s">
         <v>5</v>
       </c>
       <c r="P21" s="22">
         <f t="shared" ref="P21" si="19">N19+P19</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="S21" s="22" t="s">
         <v>5</v>
       </c>
       <c r="T21" s="22">
         <f t="shared" ref="T21" si="20">R19+T19</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="W21" s="22" t="s">
         <v>5</v>
       </c>
       <c r="X21" s="22">
         <f t="shared" ref="X21" si="21">V19+X19</f>
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2622,7 +3034,7 @@
       <c r="G24" s="39"/>
       <c r="H24" s="24">
         <f>SUM(B19,D19,F19,H19,J19,L19,N19,P19,R19,T19,V19,X19)*1000</f>
-        <v>6000</v>
+        <v>684000</v>
       </c>
       <c r="I24" s="25" t="s">
         <v>6</v>
@@ -2635,7 +3047,7 @@
       </c>
       <c r="L24" s="28">
         <f>J24-H24</f>
-        <v>2094000</v>
+        <v>1416000</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2645,7 +3057,7 @@
       <c r="G25" s="39"/>
       <c r="H25" s="20">
         <f>AVERAGE(B2:B18,D2:D15,F2:F18,H2:H15,J2:J18,L2:L12,N2:N18,P2:P15,R2:R18,T2:T14,V2:V18,X2:X15)*1000</f>
-        <v>6000</v>
+        <v>4196.3190184049081</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -2730,213 +3142,229 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>42887</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>43252</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
       <c r="C31" s="2">
-        <v>42904</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>43269</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
       <c r="E31" s="2">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="2">
-        <v>42934</v>
+        <v>43299</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="2">
-        <v>42948</v>
+        <v>43313</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="2">
-        <v>42965</v>
+        <v>43330</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="2">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="2">
-        <v>42996</v>
+        <v>43361</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="2">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="2">
-        <v>43026</v>
+        <v>43391</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="2">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="2">
-        <v>43057</v>
+        <v>43422</v>
       </c>
       <c r="X31" s="1"/>
       <c r="Y31" s="2">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>42888</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>43253</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
       <c r="C32" s="2">
-        <v>42905</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>43270</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
       <c r="E32" s="2">
-        <v>42918</v>
+        <v>43283</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="2">
-        <v>42935</v>
+        <v>43300</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="2">
-        <v>42949</v>
+        <v>43314</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="2">
-        <v>42966</v>
+        <v>43331</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="2">
-        <v>42980</v>
+        <v>43345</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="2">
-        <v>42997</v>
+        <v>43362</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="2">
-        <v>43010</v>
+        <v>43375</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="2">
-        <v>43027</v>
+        <v>43392</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="2">
-        <v>43041</v>
+        <v>43406</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="2">
-        <v>43058</v>
+        <v>43423</v>
       </c>
       <c r="X32" s="1"/>
       <c r="Y32" s="2">
-        <v>43071</v>
+        <v>43436</v>
       </c>
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>42889</v>
-      </c>
-      <c r="B33" s="1"/>
+        <v>43254</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
       <c r="C33" s="2">
-        <v>42906</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>43271</v>
+      </c>
+      <c r="D33" s="1">
+        <v>10</v>
+      </c>
       <c r="E33" s="2">
-        <v>42919</v>
+        <v>43284</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="2">
-        <v>42936</v>
+        <v>43301</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="2">
-        <v>42950</v>
+        <v>43315</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="2">
-        <v>42967</v>
+        <v>43332</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="2">
-        <v>42981</v>
+        <v>43346</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="2">
-        <v>42998</v>
+        <v>43363</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="2">
-        <v>43011</v>
+        <v>43376</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="2">
-        <v>43028</v>
+        <v>43393</v>
       </c>
       <c r="T33" s="1"/>
       <c r="U33" s="2">
-        <v>43042</v>
+        <v>43407</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="2">
-        <v>43059</v>
+        <v>43424</v>
       </c>
       <c r="X33" s="1"/>
       <c r="Y33" s="7">
-        <v>43072</v>
+        <v>43437</v>
       </c>
       <c r="Z33" s="8"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>42890</v>
-      </c>
-      <c r="B34" s="1"/>
+        <v>43255</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
       <c r="C34" s="2">
-        <v>42907</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>43272</v>
+      </c>
+      <c r="D34" s="1">
+        <v>20</v>
+      </c>
       <c r="E34" s="2">
-        <v>42920</v>
+        <v>43285</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="2">
-        <v>42937</v>
+        <v>43302</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="2">
-        <v>42951</v>
+        <v>43316</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="2">
-        <v>42968</v>
+        <v>43333</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="2">
-        <v>42982</v>
+        <v>43347</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="2">
-        <v>42999</v>
+        <v>43364</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="2">
-        <v>43012</v>
+        <v>43377</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="2">
-        <v>43029</v>
+        <v>43394</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="2">
-        <v>43043</v>
+        <v>43408</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="2">
-        <v>43060</v>
+        <v>43425</v>
       </c>
       <c r="X34" s="6"/>
       <c r="Y34" s="11"/>
@@ -2944,51 +3372,55 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>42891</v>
-      </c>
-      <c r="B35" s="1"/>
+        <v>43256</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
       <c r="C35" s="2">
-        <v>42908</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>43273</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
       <c r="E35" s="2">
-        <v>42921</v>
+        <v>43286</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="2">
-        <v>42938</v>
+        <v>43303</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="2">
-        <v>42952</v>
+        <v>43317</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="2">
-        <v>42969</v>
+        <v>43334</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="2">
-        <v>42983</v>
+        <v>43348</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="2">
-        <v>43000</v>
+        <v>43365</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="2">
-        <v>43013</v>
+        <v>43378</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="2">
-        <v>43030</v>
+        <v>43395</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="2">
-        <v>43044</v>
+        <v>43409</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="2">
-        <v>43061</v>
+        <v>43426</v>
       </c>
       <c r="X35" s="6"/>
       <c r="Y35" s="13"/>
@@ -2996,51 +3428,55 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>42892</v>
-      </c>
-      <c r="B36" s="1"/>
+        <v>43257</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
       <c r="C36" s="2">
-        <v>42909</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>43274</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E36" s="2">
-        <v>42922</v>
+        <v>43287</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="2">
-        <v>42939</v>
+        <v>43304</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="2">
-        <v>42953</v>
+        <v>43318</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="2">
-        <v>42970</v>
+        <v>43335</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="2">
-        <v>42984</v>
+        <v>43349</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="2">
-        <v>43001</v>
+        <v>43366</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="2">
-        <v>43014</v>
+        <v>43379</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="2">
-        <v>43031</v>
+        <v>43396</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="2">
-        <v>43045</v>
+        <v>43410</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="2">
-        <v>43062</v>
+        <v>43427</v>
       </c>
       <c r="X36" s="6"/>
       <c r="Y36" s="13"/>
@@ -3048,51 +3484,55 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>42893</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>43258</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10</v>
+      </c>
       <c r="C37" s="2">
-        <v>42910</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>43275</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E37" s="2">
-        <v>42923</v>
+        <v>43288</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="2">
-        <v>42940</v>
+        <v>43305</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="2">
-        <v>42954</v>
+        <v>43319</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="2">
-        <v>42971</v>
+        <v>43336</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="2">
-        <v>42985</v>
+        <v>43350</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="2">
-        <v>43002</v>
+        <v>43367</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="2">
-        <v>43015</v>
+        <v>43380</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="2">
-        <v>43032</v>
+        <v>43397</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="2">
-        <v>43046</v>
+        <v>43411</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="2">
-        <v>43063</v>
+        <v>43428</v>
       </c>
       <c r="X37" s="6"/>
       <c r="Y37" s="13"/>
@@ -3100,51 +3540,55 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>42894</v>
-      </c>
-      <c r="B38" s="1"/>
+        <v>43259</v>
+      </c>
+      <c r="B38" s="1">
+        <v>24</v>
+      </c>
       <c r="C38" s="2">
-        <v>42911</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>43276</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E38" s="2">
-        <v>42924</v>
+        <v>43289</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="2">
-        <v>42941</v>
+        <v>43306</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="2">
-        <v>42955</v>
+        <v>43320</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="2">
-        <v>42972</v>
+        <v>43337</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="2">
-        <v>42986</v>
+        <v>43351</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="2">
-        <v>43003</v>
+        <v>43368</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="2">
-        <v>43016</v>
+        <v>43381</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="2">
-        <v>43033</v>
+        <v>43398</v>
       </c>
       <c r="T38" s="1"/>
       <c r="U38" s="2">
-        <v>43047</v>
+        <v>43412</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="2">
-        <v>43064</v>
+        <v>43429</v>
       </c>
       <c r="X38" s="6"/>
       <c r="Y38" s="13"/>
@@ -3152,51 +3596,55 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>42895</v>
-      </c>
-      <c r="B39" s="1"/>
+        <v>43260</v>
+      </c>
+      <c r="B39" s="1">
+        <v>36</v>
+      </c>
       <c r="C39" s="2">
-        <v>42912</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>43277</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6</v>
+      </c>
       <c r="E39" s="2">
-        <v>42925</v>
+        <v>43290</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="2">
-        <v>42942</v>
+        <v>43307</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="2">
-        <v>42956</v>
+        <v>43321</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="2">
-        <v>42973</v>
+        <v>43338</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="2">
-        <v>42987</v>
+        <v>43352</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="2">
-        <v>43004</v>
+        <v>43369</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="2">
-        <v>43017</v>
+        <v>43382</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="2">
-        <v>43034</v>
+        <v>43399</v>
       </c>
       <c r="T39" s="1"/>
       <c r="U39" s="2">
-        <v>43048</v>
+        <v>43413</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="2">
-        <v>43065</v>
+        <v>43430</v>
       </c>
       <c r="X39" s="6"/>
       <c r="Y39" s="13"/>
@@ -3204,51 +3652,55 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>42896</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>43261</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
       <c r="C40" s="2">
-        <v>42913</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>43278</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6</v>
+      </c>
       <c r="E40" s="2">
-        <v>42926</v>
+        <v>43291</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="2">
-        <v>42943</v>
+        <v>43308</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="2">
-        <v>42957</v>
+        <v>43322</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="2">
-        <v>42974</v>
+        <v>43339</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="2">
-        <v>42988</v>
+        <v>43353</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="2">
-        <v>43005</v>
+        <v>43370</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="2">
-        <v>43018</v>
+        <v>43383</v>
       </c>
       <c r="R40" s="1"/>
       <c r="S40" s="2">
-        <v>43035</v>
+        <v>43400</v>
       </c>
       <c r="T40" s="1"/>
       <c r="U40" s="2">
-        <v>43049</v>
+        <v>43414</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="2">
-        <v>43066</v>
+        <v>43431</v>
       </c>
       <c r="X40" s="6"/>
       <c r="Y40" s="13"/>
@@ -3256,51 +3708,53 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>42897</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>43262</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5</v>
+      </c>
       <c r="C41" s="2">
-        <v>42914</v>
+        <v>43279</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2">
-        <v>42927</v>
+        <v>43292</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="2">
-        <v>42944</v>
+        <v>43309</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="2">
-        <v>42958</v>
+        <v>43323</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="2">
-        <v>42975</v>
+        <v>43340</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="2">
-        <v>42989</v>
+        <v>43354</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="2">
-        <v>43006</v>
+        <v>43371</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="2">
-        <v>43019</v>
+        <v>43384</v>
       </c>
       <c r="R41" s="1"/>
       <c r="S41" s="2">
-        <v>43036</v>
+        <v>43401</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="2">
-        <v>43050</v>
+        <v>43415</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="2">
-        <v>43067</v>
+        <v>43432</v>
       </c>
       <c r="X41" s="6"/>
       <c r="Y41" s="13"/>
@@ -3308,51 +3762,53 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>42898</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>43263</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
       <c r="C42" s="2">
-        <v>42915</v>
+        <v>43280</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2">
-        <v>42928</v>
+        <v>43293</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="2">
-        <v>42945</v>
+        <v>43310</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="2">
-        <v>42959</v>
+        <v>43324</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="2">
-        <v>42976</v>
+        <v>43341</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="2">
-        <v>42990</v>
+        <v>43355</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="2">
-        <v>43007</v>
+        <v>43372</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="2">
-        <v>43020</v>
+        <v>43385</v>
       </c>
       <c r="R42" s="1"/>
       <c r="S42" s="2">
-        <v>43037</v>
+        <v>43402</v>
       </c>
       <c r="T42" s="1"/>
       <c r="U42" s="2">
-        <v>43051</v>
+        <v>43416</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="2">
-        <v>43068</v>
+        <v>43433</v>
       </c>
       <c r="X42" s="6"/>
       <c r="Y42" s="13"/>
@@ -3360,51 +3816,53 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>42899</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>43264</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
       <c r="C43" s="2">
-        <v>42916</v>
+        <v>43281</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2">
-        <v>42929</v>
+        <v>43294</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="2">
-        <v>42946</v>
+        <v>43311</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="2">
-        <v>42960</v>
+        <v>43325</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="2">
-        <v>42977</v>
+        <v>43342</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="2">
-        <v>42991</v>
+        <v>43356</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="2">
-        <v>43008</v>
+        <v>43373</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="2">
-        <v>43021</v>
+        <v>43386</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="2">
-        <v>43038</v>
+        <v>43403</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="2">
-        <v>43052</v>
+        <v>43417</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="2">
-        <v>43069</v>
+        <v>43434</v>
       </c>
       <c r="X43" s="6"/>
       <c r="Y43" s="13"/>
@@ -3412,43 +3870,45 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>42900</v>
-      </c>
-      <c r="B44" s="6"/>
+        <v>43265</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
       <c r="E44" s="2">
-        <v>42930</v>
+        <v>43295</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="2">
-        <v>42947</v>
+        <v>43312</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="2">
-        <v>42961</v>
+        <v>43326</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="2">
-        <v>42978</v>
+        <v>43343</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="2">
-        <v>42992</v>
+        <v>43357</v>
       </c>
       <c r="N44" s="6"/>
       <c r="O44" s="11"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="2">
-        <v>43022</v>
+        <v>43387</v>
       </c>
       <c r="R44" s="6"/>
       <c r="S44" s="2">
-        <v>43039</v>
+        <v>43404</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="2">
-        <v>43053</v>
+        <v>43418</v>
       </c>
       <c r="V44" s="6"/>
       <c r="W44" s="11"/>
@@ -3458,37 +3918,39 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>42901</v>
-      </c>
-      <c r="B45" s="6"/>
+        <v>43266</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
       <c r="E45" s="2">
-        <v>42931</v>
+        <v>43296</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="13"/>
       <c r="H45" s="14"/>
       <c r="I45" s="2">
-        <v>42962</v>
+        <v>43327</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="13"/>
       <c r="L45" s="14"/>
       <c r="M45" s="2">
-        <v>42993</v>
+        <v>43358</v>
       </c>
       <c r="N45" s="6"/>
       <c r="O45" s="13"/>
       <c r="P45" s="14"/>
       <c r="Q45" s="2">
-        <v>43023</v>
+        <v>43388</v>
       </c>
       <c r="R45" s="6"/>
       <c r="S45" s="13"/>
       <c r="T45" s="14"/>
       <c r="U45" s="2">
-        <v>43054</v>
+        <v>43419</v>
       </c>
       <c r="V45" s="6"/>
       <c r="W45" s="13"/>
@@ -3498,37 +3960,39 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>42902</v>
-      </c>
-      <c r="B46" s="6"/>
+        <v>43267</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
       <c r="E46" s="2">
-        <v>42932</v>
+        <v>43297</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="13"/>
       <c r="H46" s="14"/>
       <c r="I46" s="2">
-        <v>42963</v>
+        <v>43328</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="13"/>
       <c r="L46" s="14"/>
       <c r="M46" s="2">
-        <v>42994</v>
+        <v>43359</v>
       </c>
       <c r="N46" s="6"/>
       <c r="O46" s="13"/>
       <c r="P46" s="14"/>
       <c r="Q46" s="2">
-        <v>43024</v>
+        <v>43389</v>
       </c>
       <c r="R46" s="6"/>
       <c r="S46" s="13"/>
       <c r="T46" s="14"/>
       <c r="U46" s="2">
-        <v>43055</v>
+        <v>43420</v>
       </c>
       <c r="V46" s="6"/>
       <c r="W46" s="13"/>
@@ -3538,37 +4002,39 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>42903</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>43268</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
       <c r="C47" s="15"/>
       <c r="D47" s="16"/>
       <c r="E47" s="2">
-        <v>42933</v>
+        <v>43298</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="15"/>
       <c r="H47" s="16"/>
       <c r="I47" s="2">
-        <v>42964</v>
+        <v>43329</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="15"/>
       <c r="L47" s="16"/>
       <c r="M47" s="2">
-        <v>42995</v>
+        <v>43360</v>
       </c>
       <c r="N47" s="6"/>
       <c r="O47" s="15"/>
       <c r="P47" s="16"/>
       <c r="Q47" s="2">
-        <v>43025</v>
+        <v>43390</v>
       </c>
       <c r="R47" s="6"/>
       <c r="S47" s="15"/>
       <c r="T47" s="16"/>
       <c r="U47" s="2">
-        <v>43056</v>
+        <v>43421</v>
       </c>
       <c r="V47" s="6"/>
       <c r="W47" s="15"/>
@@ -3582,14 +4048,14 @@
       </c>
       <c r="B48" s="4">
         <f>SUM(B31:B47)</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D48" s="4">
         <f>SUM(D31:D47)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>0</v>
@@ -3673,16 +4139,16 @@
       <c r="A49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="21" t="e">
+      <c r="B49" s="21">
         <f>AVERAGE(B31:B47)</f>
-        <v>#DIV/0!</v>
+        <v>7.8235294117647056</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="21" t="e">
+      <c r="D49" s="21">
         <f>AVERAGE(D31:D47)</f>
-        <v>#DIV/0!</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>1</v>
@@ -3768,7 +4234,7 @@
       </c>
       <c r="D50" s="22">
         <f>B48+D48</f>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="G50" s="22" t="s">
         <v>5</v>
@@ -3812,6 +4278,9 @@
         <f>Z48</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L54" s="40"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3821,7 +4290,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="24">
         <f>SUM(D21,H21,L21,P21,T21,X21,D50,H50,L50,P50,T50,X50,Z50)*1000</f>
-        <v>6000</v>
+        <v>862000</v>
       </c>
       <c r="I58" s="25" t="s">
         <v>6</v>
@@ -3834,7 +4303,7 @@
       </c>
       <c r="L58" s="28">
         <f>J58-H58</f>
-        <v>2094000</v>
+        <v>1238000</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3842,31 +4311,47 @@
         <v>1</v>
       </c>
       <c r="G59" s="39"/>
-      <c r="H59" s="20" t="e">
+      <c r="H59" s="20">
         <f>AVERAGE(B14:B18,D1:D15,F2:F18,H2:H15,J2:J18,L2:L12,N2:N18,P2:P15,R2:R18,T2:T14,V2:V18,X2:X15,B31:B47,D31:D43,F31:F47,H31:H44,J31:J47,L31:L44,N31:N47,P31:P43,R31:R47,T31:T44,V31:V47,X31:X43,Z31:Z33)</f>
-        <v>#DIV/0!</v>
+        <v>4.6836158192090398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F61" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="42"/>
+      <c r="H61" s="43">
+        <f ca="1">DATEDIF(TODAY(), "12/20/2018", "d")</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F62" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="42"/>
+      <c r="H62" s="44">
+        <f ca="1">L58/H61</f>
+        <v>7074.2857142857147</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="F62:G62"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F61:G61"/>
   </mergeCells>
-  <conditionalFormatting sqref="V3:V18">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="8"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7 Sensitivity: Internal &amp; Restricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3881,7 +4366,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7 Sensitivity: Internal &amp; Restricted</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3927,7 +4416,7 @@
       </c>
       <c r="D2" s="30">
         <f>'Dainandin Nond'!D21</f>
-        <v>6</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3942,7 +4431,7 @@
       </c>
       <c r="D3" s="30">
         <f>'Dainandin Nond'!H21</f>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3957,7 +4446,7 @@
       </c>
       <c r="D4" s="30">
         <f>'Dainandin Nond'!L21</f>
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3972,7 +4461,7 @@
       </c>
       <c r="D5" s="30">
         <f>'Dainandin Nond'!P21</f>
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4142,7 +4631,7 @@
       </c>
       <c r="D17" s="33">
         <f>SUM(D2:D16)</f>
-        <v>6</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4153,12 +4642,16 @@
       </c>
       <c r="D18" s="34">
         <f>AVERAGE(D2:D16)</f>
-        <v>0.46153846153846156</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7 Sensitivity: Internal &amp; Restricted</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">

--- a/NondVahi2018.xlsx
+++ b/NondVahi2018.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="33">
   <si>
     <t>Sum</t>
   </si>
@@ -92,9 +92,6 @@
     <t>November</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -104,12 +101,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t>32 Sadhan Shibir May</t>
-  </si>
-  <si>
-    <t>33 Sadhan Shibir November</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -117,6 +108,18 @@
   </si>
   <si>
     <t>Remaining Average</t>
+  </si>
+  <si>
+    <t>32 Sadhan Shibir January 2018</t>
+  </si>
+  <si>
+    <t>33 Sadhan Shibir June 2018</t>
+  </si>
+  <si>
+    <t>December 2018</t>
+  </si>
+  <si>
+    <t>Monthly Average</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -469,21 +472,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,15 +568,15 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>('Dainandin Nond'!$H$24,'Dainandin Nond'!$L$24)</c:f>
+              <c:f>('Dainandin Nond'!$H$58,'Dainandin Nond'!$L$58)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>684000</c:v>
+                  <c:v>905000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1416000</c:v>
+                  <c:v>1195000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -690,7 +695,7 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>December 2016</c:v>
+                  <c:v>December 2017</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>January</c:v>
@@ -726,13 +731,13 @@
                   <c:v>November</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>December 2017</c:v>
+                  <c:v>December 2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32 Sadhan Shibir May</c:v>
+                  <c:v>32 Sadhan Shibir January 2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33 Sadhan Shibir November</c:v>
+                  <c:v>33 Sadhan Shibir June 2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -756,16 +761,16 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -781,6 +786,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,7 +884,7 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>December 2016</c:v>
+                  <c:v>December 2017</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>January</c:v>
@@ -909,13 +920,13 @@
                   <c:v>November</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>December 2017</c:v>
+                  <c:v>December 2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32 Sadhan Shibir May</c:v>
+                  <c:v>32 Sadhan Shibir January 2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33 Sadhan Shibir November</c:v>
+                  <c:v>33 Sadhan Shibir June 2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -939,16 +950,16 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -964,6 +975,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1571,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z62"/>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,7 +1618,8 @@
     <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -2712,7 +2730,7 @@
       <c r="W16" s="17"/>
       <c r="X16" s="12"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43085</v>
       </c>
@@ -2762,7 +2780,7 @@
       <c r="W17" s="18"/>
       <c r="X17" s="14"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43086</v>
       </c>
@@ -2810,7 +2828,7 @@
       <c r="W18" s="19"/>
       <c r="X18" s="16"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
@@ -2896,7 +2914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -2982,7 +3000,7 @@
         <v>1.6428571428571428</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C21" s="22" t="s">
         <v>5</v>
       </c>
@@ -3026,12 +3044,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F24" s="38" t="s">
+    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="24">
         <f>SUM(B19,D19,F19,H19,J19,L19,N19,P19,R19,T19,V19,X19)*1000</f>
         <v>684000</v>
@@ -3050,17 +3068,17 @@
         <v>1416000</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F25" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="39"/>
+    <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="46"/>
       <c r="H25" s="20">
         <f>AVERAGE(B2:B18,D2:D15,F2:F18,H2:H15,J2:J18,L2:L12,N2:N18,P2:P15,R2:R18,T2:T14,V2:V18,X2:X15)*1000</f>
         <v>4196.3190184049081</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -3139,8 +3157,14 @@
       <c r="Z30" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43252</v>
       </c>
@@ -3156,7 +3180,9 @@
       <c r="E31" s="2">
         <v>43282</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
       <c r="G31" s="2">
         <v>43299</v>
       </c>
@@ -3197,8 +3223,12 @@
         <v>43435</v>
       </c>
       <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA31" s="2">
+        <v>43452</v>
+      </c>
+      <c r="AB31" s="1"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43253</v>
       </c>
@@ -3214,7 +3244,9 @@
       <c r="E32" s="2">
         <v>43283</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1">
+        <v>6</v>
+      </c>
       <c r="G32" s="2">
         <v>43300</v>
       </c>
@@ -3255,8 +3287,12 @@
         <v>43436</v>
       </c>
       <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA32" s="2">
+        <v>43453</v>
+      </c>
+      <c r="AB32" s="1"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43254</v>
       </c>
@@ -3272,7 +3308,9 @@
       <c r="E33" s="2">
         <v>43284</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
       <c r="G33" s="2">
         <v>43301</v>
       </c>
@@ -3313,8 +3351,12 @@
         <v>43437</v>
       </c>
       <c r="Z33" s="8"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA33" s="2">
+        <v>43454</v>
+      </c>
+      <c r="AB33" s="8"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43255</v>
       </c>
@@ -3330,7 +3372,9 @@
       <c r="E34" s="2">
         <v>43285</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
       <c r="G34" s="2">
         <v>43302</v>
       </c>
@@ -3367,10 +3411,16 @@
         <v>43425</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="12"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y34" s="7">
+        <v>43438</v>
+      </c>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="7">
+        <v>43455</v>
+      </c>
+      <c r="AB34" s="8"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43256</v>
       </c>
@@ -3423,10 +3473,14 @@
         <v>43426</v>
       </c>
       <c r="X35" s="6"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="14"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y35" s="7">
+        <v>43439</v>
+      </c>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="12"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43257</v>
       </c>
@@ -3437,7 +3491,7 @@
         <v>43274</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E36" s="2">
         <v>43287</v>
@@ -3479,10 +3533,14 @@
         <v>43427</v>
       </c>
       <c r="X36" s="6"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="14"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y36" s="7">
+        <v>43440</v>
+      </c>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="14"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43258</v>
       </c>
@@ -3493,7 +3551,7 @@
         <v>43275</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E37" s="2">
         <v>43288</v>
@@ -3535,10 +3593,14 @@
         <v>43428</v>
       </c>
       <c r="X37" s="6"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="14"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y37" s="7">
+        <v>43441</v>
+      </c>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="14"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43259</v>
       </c>
@@ -3549,7 +3611,7 @@
         <v>43276</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E38" s="2">
         <v>43289</v>
@@ -3591,10 +3653,14 @@
         <v>43429</v>
       </c>
       <c r="X38" s="6"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="14"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y38" s="7">
+        <v>43442</v>
+      </c>
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="14"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43260</v>
       </c>
@@ -3647,10 +3713,14 @@
         <v>43430</v>
       </c>
       <c r="X39" s="6"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="14"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y39" s="7">
+        <v>43443</v>
+      </c>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="14"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43261</v>
       </c>
@@ -3703,10 +3773,14 @@
         <v>43431</v>
       </c>
       <c r="X40" s="6"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="14"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y40" s="7">
+        <v>43444</v>
+      </c>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="14"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43262</v>
       </c>
@@ -3716,7 +3790,9 @@
       <c r="C41" s="2">
         <v>43279</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1">
+        <v>10</v>
+      </c>
       <c r="E41" s="2">
         <v>43292</v>
       </c>
@@ -3757,10 +3833,14 @@
         <v>43432</v>
       </c>
       <c r="X41" s="6"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="14"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y41" s="7">
+        <v>43445</v>
+      </c>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="14"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43263</v>
       </c>
@@ -3770,7 +3850,9 @@
       <c r="C42" s="2">
         <v>43280</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1">
+        <v>4</v>
+      </c>
       <c r="E42" s="2">
         <v>43293</v>
       </c>
@@ -3811,10 +3893,14 @@
         <v>43433</v>
       </c>
       <c r="X42" s="6"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="14"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y42" s="7">
+        <v>43446</v>
+      </c>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="14"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43264</v>
       </c>
@@ -3824,7 +3910,9 @@
       <c r="C43" s="2">
         <v>43281</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1">
+        <v>17</v>
+      </c>
       <c r="E43" s="2">
         <v>43294</v>
       </c>
@@ -3865,10 +3953,14 @@
         <v>43434</v>
       </c>
       <c r="X43" s="6"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="14"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y43" s="7">
+        <v>43447</v>
+      </c>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="14"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43265</v>
       </c>
@@ -3913,10 +4005,14 @@
       <c r="V44" s="6"/>
       <c r="W44" s="11"/>
       <c r="X44" s="36"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="14"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y44" s="7">
+        <v>43448</v>
+      </c>
+      <c r="Z44" s="41"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="14"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43266</v>
       </c>
@@ -3955,10 +4051,14 @@
       <c r="V45" s="6"/>
       <c r="W45" s="13"/>
       <c r="X45" s="35"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="14"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y45" s="7">
+        <v>43449</v>
+      </c>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="14"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43267</v>
       </c>
@@ -3997,10 +4097,14 @@
       <c r="V46" s="6"/>
       <c r="W46" s="13"/>
       <c r="X46" s="35"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="14"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y46" s="7">
+        <v>43450</v>
+      </c>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="14"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43268</v>
       </c>
@@ -4039,10 +4143,14 @@
       <c r="V47" s="6"/>
       <c r="W47" s="15"/>
       <c r="X47" s="37"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="16"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y47" s="7">
+        <v>43451</v>
+      </c>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="16"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>0</v>
       </c>
@@ -4055,14 +4163,14 @@
       </c>
       <c r="D48" s="4">
         <f>SUM(D31:D47)</f>
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F48" s="4">
         <f>SUM(F31:F47)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>0</v>
@@ -4131,11 +4239,18 @@
         <v>0</v>
       </c>
       <c r="Z48" s="4">
-        <f t="shared" ref="Z48" si="30">SUM(Z31:Z47)</f>
+        <f t="shared" ref="Z48:AB48" si="30">SUM(Z31:Z47)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>1</v>
       </c>
@@ -4148,14 +4263,14 @@
       </c>
       <c r="D49" s="21">
         <f>AVERAGE(D31:D47)</f>
-        <v>6.4285714285714288</v>
+        <v>7.6</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="21" t="e">
+      <c r="F49" s="21">
         <f>AVERAGE(F31:F47)</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>1</v>
@@ -4217,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="X49" s="21" t="e">
-        <f t="shared" ref="X49:Z49" si="38">AVERAGE(X31:X47)</f>
+        <f t="shared" ref="X49:AB49" si="38">AVERAGE(X31:X47)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y49" s="5" t="s">
@@ -4227,21 +4342,28 @@
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="21" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C50" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="22">
         <f>B48+D48</f>
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="G50" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H50" s="22">
         <f>F48+H48</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K50" s="22" t="s">
         <v>5</v>
@@ -4271,26 +4393,26 @@
         <f t="shared" ref="X50" si="42">V48+X48</f>
         <v>0</v>
       </c>
-      <c r="Y50" s="22" t="s">
+      <c r="AA50" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z50" s="22">
-        <f>Z48</f>
+      <c r="AB50" s="22">
+        <f>Z48+AB48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="L54" s="40"/>
-    </row>
-    <row r="57" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F58" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="39"/>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L54" s="38"/>
+    </row>
+    <row r="57" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F58" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="46"/>
       <c r="H58" s="24">
-        <f>SUM(D21,H21,L21,P21,T21,X21,D50,H50,L50,P50,T50,X50,Z50)*1000</f>
-        <v>862000</v>
+        <f>SUM(D21,H21,L21,P21,T21,X21,D50,H50,L50,P50,T50,X50,AB50)*1000</f>
+        <v>905000</v>
       </c>
       <c r="I58" s="25" t="s">
         <v>6</v>
@@ -4303,38 +4425,38 @@
       </c>
       <c r="L58" s="28">
         <f>J58-H58</f>
-        <v>1238000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F59" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="G59" s="39"/>
+        <v>1195000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F59" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="46"/>
       <c r="H59" s="20">
         <f>AVERAGE(B14:B18,D1:D15,F2:F18,H2:H15,J2:J18,L2:L12,N2:N18,P2:P15,R2:R18,T2:T14,V2:V18,X2:X15,B31:B47,D31:D43,F31:F47,H31:H44,J31:J47,L31:L44,N31:N47,P31:P43,R31:R47,T31:T44,V31:V47,X31:X43,Z31:Z33)</f>
-        <v>4.6836158192090398</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F61" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" s="42"/>
-      <c r="H61" s="43">
+        <v>4.7391304347826084</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F61" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="44"/>
+      <c r="H61" s="39">
         <f ca="1">DATEDIF(TODAY(), "12/20/2018", "d")</f>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F62" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" s="42"/>
-      <c r="H62" s="44">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F62" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="44"/>
+      <c r="H62" s="40">
         <f ca="1">L58/H61</f>
-        <v>7074.2857142857147</v>
+        <v>7113.0952380952385</v>
       </c>
     </row>
   </sheetData>
@@ -4359,7 +4481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -4376,10 +4498,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4409,10 +4531,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="30">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="30">
         <f>'Dainandin Nond'!D21</f>
@@ -4424,7 +4546,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>12</v>
@@ -4439,7 +4561,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>13</v>
@@ -4454,7 +4576,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>14</v>
@@ -4469,14 +4591,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="30">
-        <f>'Dainandin Nond'!D25</f>
-        <v>0</v>
+        <f>'Dainandin Nond'!T21</f>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4484,14 +4606,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="30">
-        <f>'Dainandin Nond'!D26</f>
-        <v>0</v>
+        <f>'Dainandin Nond'!X21</f>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4499,14 +4621,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="30">
-        <f>'Dainandin Nond'!D27</f>
-        <v>0</v>
+        <f>'Dainandin Nond'!D50</f>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4514,14 +4636,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="30">
         <f>'Dainandin Nond'!H50</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4529,7 +4651,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>19</v>
@@ -4544,7 +4666,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>20</v>
@@ -4559,7 +4681,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>21</v>
@@ -4574,7 +4696,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>22</v>
@@ -4589,13 +4711,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D14" s="30">
-        <f>'Dainandin Nond'!Z50</f>
+        <f>'Dainandin Nond'!AB50</f>
         <v>0</v>
       </c>
     </row>
@@ -4604,34 +4726,38 @@
         <v>14</v>
       </c>
       <c r="B15" s="30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="30"/>
+        <v>29</v>
+      </c>
+      <c r="D15" s="30">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>15</v>
       </c>
       <c r="B16" s="30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="30"/>
+        <v>30</v>
+      </c>
+      <c r="D16" s="30">
+        <v>145</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="33">
         <f>SUM(D2:D16)</f>
-        <v>442</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4642,7 +4768,16 @@
       </c>
       <c r="D18" s="34">
         <f>AVERAGE(D2:D16)</f>
-        <v>34</v>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="42">
+        <f>AVERAGE(D2:D14)</f>
+        <v>69.615384615384613</v>
       </c>
     </row>
   </sheetData>

--- a/NondVahi2018.xlsx
+++ b/NondVahi2018.xlsx
@@ -573,10 +573,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>905000</c:v>
+                  <c:v>935000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1195000</c:v>
+                  <c:v>1165000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,7 +770,7 @@
                   <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -959,7 +959,7 @@
                   <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1590,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3436,7 +3436,9 @@
       <c r="E35" s="2">
         <v>43286</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
       <c r="G35" s="2">
         <v>43303</v>
       </c>
@@ -3496,7 +3498,9 @@
       <c r="E36" s="2">
         <v>43287</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
       <c r="G36" s="2">
         <v>43304</v>
       </c>
@@ -3556,7 +3560,9 @@
       <c r="E37" s="2">
         <v>43288</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1">
+        <v>20</v>
+      </c>
       <c r="G37" s="2">
         <v>43305</v>
       </c>
@@ -3616,7 +3622,9 @@
       <c r="E38" s="2">
         <v>43289</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
       <c r="G38" s="2">
         <v>43306</v>
       </c>
@@ -3676,7 +3684,9 @@
       <c r="E39" s="2">
         <v>43290</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
       <c r="G39" s="2">
         <v>43307</v>
       </c>
@@ -4170,7 +4180,7 @@
       </c>
       <c r="F48" s="4">
         <f>SUM(F31:F47)</f>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>0</v>
@@ -4270,7 +4280,7 @@
       </c>
       <c r="F49" s="21">
         <f>AVERAGE(F31:F47)</f>
-        <v>3</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>1</v>
@@ -4363,7 +4373,7 @@
       </c>
       <c r="H50" s="22">
         <f>F48+H48</f>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K50" s="22" t="s">
         <v>5</v>
@@ -4412,7 +4422,7 @@
       <c r="G58" s="46"/>
       <c r="H58" s="24">
         <f>SUM(D21,H21,L21,P21,T21,X21,D50,H50,L50,P50,T50,X50,AB50)*1000</f>
-        <v>905000</v>
+        <v>935000</v>
       </c>
       <c r="I58" s="25" t="s">
         <v>6</v>
@@ -4425,7 +4435,7 @@
       </c>
       <c r="L58" s="28">
         <f>J58-H58</f>
-        <v>1195000</v>
+        <v>1165000</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4435,7 +4445,7 @@
       <c r="G59" s="46"/>
       <c r="H59" s="20">
         <f>AVERAGE(B14:B18,D1:D15,F2:F18,H2:H15,J2:J18,L2:L12,N2:N18,P2:P15,R2:R18,T2:T14,V2:V18,X2:X15,B31:B47,D31:D43,F31:F47,H31:H44,J31:J47,L31:L44,N31:N47,P31:P43,R31:R47,T31:T44,V31:V47,X31:X43,Z31:Z33)</f>
-        <v>4.7391304347826084</v>
+        <v>4.7724867724867721</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4446,7 +4456,7 @@
       <c r="G61" s="44"/>
       <c r="H61" s="39">
         <f ca="1">DATEDIF(TODAY(), "12/20/2018", "d")</f>
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4456,7 +4466,7 @@
       <c r="G62" s="44"/>
       <c r="H62" s="40">
         <f ca="1">L58/H61</f>
-        <v>7113.0952380952385</v>
+        <v>7191.358024691358</v>
       </c>
     </row>
   </sheetData>
@@ -4643,7 +4653,7 @@
       </c>
       <c r="D9" s="30">
         <f>'Dainandin Nond'!H50</f>
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4757,7 +4767,7 @@
       </c>
       <c r="D17" s="33">
         <f>SUM(D2:D16)</f>
-        <v>1100</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4768,7 +4778,7 @@
       </c>
       <c r="D18" s="34">
         <f>AVERAGE(D2:D16)</f>
-        <v>73.333333333333329</v>
+        <v>75.333333333333329</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4777,7 +4787,7 @@
       </c>
       <c r="D19" s="42">
         <f>AVERAGE(D2:D14)</f>
-        <v>69.615384615384613</v>
+        <v>71.92307692307692</v>
       </c>
     </row>
   </sheetData>

--- a/NondVahi2018.xlsx
+++ b/NondVahi2018.xlsx
@@ -493,8 +493,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF00FF00"/>
@@ -573,10 +601,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>935000</c:v>
+                  <c:v>1043000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1165000</c:v>
+                  <c:v>1057000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,7 +798,7 @@
                   <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -959,7 +987,7 @@
                   <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1590,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3186,7 +3214,9 @@
       <c r="G31" s="2">
         <v>43299</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <v>7</v>
+      </c>
       <c r="I31" s="2">
         <v>43313</v>
       </c>
@@ -3250,7 +3280,9 @@
       <c r="G32" s="2">
         <v>43300</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
       <c r="I32" s="2">
         <v>43314</v>
       </c>
@@ -3314,7 +3346,9 @@
       <c r="G33" s="2">
         <v>43301</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
       <c r="I33" s="2">
         <v>43315</v>
       </c>
@@ -3378,7 +3412,9 @@
       <c r="G34" s="2">
         <v>43302</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
       <c r="I34" s="2">
         <v>43316</v>
       </c>
@@ -3442,7 +3478,9 @@
       <c r="G35" s="2">
         <v>43303</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
       <c r="I35" s="2">
         <v>43317</v>
       </c>
@@ -3504,7 +3542,9 @@
       <c r="G36" s="2">
         <v>43304</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
       <c r="I36" s="2">
         <v>43318</v>
       </c>
@@ -3566,7 +3606,9 @@
       <c r="G37" s="2">
         <v>43305</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
       <c r="I37" s="2">
         <v>43319</v>
       </c>
@@ -3628,7 +3670,9 @@
       <c r="G38" s="2">
         <v>43306</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
       <c r="I38" s="2">
         <v>43320</v>
       </c>
@@ -3690,7 +3734,9 @@
       <c r="G39" s="2">
         <v>43307</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1">
+        <v>15</v>
+      </c>
       <c r="I39" s="2">
         <v>43321</v>
       </c>
@@ -3746,11 +3792,15 @@
       <c r="E40" s="2">
         <v>43291</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
       <c r="G40" s="2">
         <v>43308</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1">
+        <v>31</v>
+      </c>
       <c r="I40" s="2">
         <v>43322</v>
       </c>
@@ -3806,11 +3856,15 @@
       <c r="E41" s="2">
         <v>43292</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1">
+        <v>6</v>
+      </c>
       <c r="G41" s="2">
         <v>43309</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1">
+        <v>13</v>
+      </c>
       <c r="I41" s="2">
         <v>43323</v>
       </c>
@@ -3866,11 +3920,15 @@
       <c r="E42" s="2">
         <v>43293</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
       <c r="G42" s="2">
         <v>43310</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1">
+        <v>7</v>
+      </c>
       <c r="I42" s="2">
         <v>43324</v>
       </c>
@@ -3926,7 +3984,9 @@
       <c r="E43" s="2">
         <v>43294</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1">
+        <v>4</v>
+      </c>
       <c r="G43" s="2">
         <v>43311</v>
       </c>
@@ -3982,7 +4042,9 @@
       <c r="E44" s="2">
         <v>43295</v>
       </c>
-      <c r="F44" s="6"/>
+      <c r="F44" s="6">
+        <v>4</v>
+      </c>
       <c r="G44" s="2">
         <v>43312</v>
       </c>
@@ -4034,7 +4096,9 @@
       <c r="E45" s="2">
         <v>43296</v>
       </c>
-      <c r="F45" s="6"/>
+      <c r="F45" s="6">
+        <v>4</v>
+      </c>
       <c r="G45" s="13"/>
       <c r="H45" s="14"/>
       <c r="I45" s="2">
@@ -4080,7 +4144,9 @@
       <c r="E46" s="2">
         <v>43297</v>
       </c>
-      <c r="F46" s="6"/>
+      <c r="F46" s="6">
+        <v>2</v>
+      </c>
       <c r="G46" s="13"/>
       <c r="H46" s="14"/>
       <c r="I46" s="2">
@@ -4126,7 +4192,9 @@
       <c r="E47" s="2">
         <v>43298</v>
       </c>
-      <c r="F47" s="6"/>
+      <c r="F47" s="6">
+        <v>2</v>
+      </c>
       <c r="G47" s="15"/>
       <c r="H47" s="16"/>
       <c r="I47" s="2">
@@ -4180,14 +4248,14 @@
       </c>
       <c r="F48" s="4">
         <f>SUM(F31:F47)</f>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H48" s="4">
         <f>SUM(H31:H47)</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>0</v>
@@ -4280,14 +4348,14 @@
       </c>
       <c r="F49" s="21">
         <f>AVERAGE(F31:F47)</f>
-        <v>4.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H49" s="21" t="e">
+      <c r="H49" s="21">
         <f>AVERAGE(H31:H47)</f>
-        <v>#DIV/0!</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>1</v>
@@ -4373,7 +4441,7 @@
       </c>
       <c r="H50" s="22">
         <f>F48+H48</f>
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="K50" s="22" t="s">
         <v>5</v>
@@ -4422,7 +4490,7 @@
       <c r="G58" s="46"/>
       <c r="H58" s="24">
         <f>SUM(D21,H21,L21,P21,T21,X21,D50,H50,L50,P50,T50,X50,AB50)*1000</f>
-        <v>935000</v>
+        <v>1043000</v>
       </c>
       <c r="I58" s="25" t="s">
         <v>6</v>
@@ -4435,7 +4503,7 @@
       </c>
       <c r="L58" s="28">
         <f>J58-H58</f>
-        <v>1165000</v>
+        <v>1057000</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4444,8 +4512,8 @@
       </c>
       <c r="G59" s="46"/>
       <c r="H59" s="20">
-        <f>AVERAGE(B14:B18,D1:D15,F2:F18,H2:H15,J2:J18,L2:L12,N2:N18,P2:P15,R2:R18,T2:T14,V2:V18,X2:X15,B31:B47,D31:D43,F31:F47,H31:H44,J31:J47,L31:L44,N31:N47,P31:P43,R31:R47,T31:T44,V31:V47,X31:X43,Z31:Z33)</f>
-        <v>4.7724867724867721</v>
+        <f>AVERAGE(B4:B18,D1:D15,F2:F18,H2:H15,J2:J18,L2:L12,N2:N18,P2:P15,R2:R18,T2:T14,V2:V18,X2:X15,B31:B47,D31:D43,F31:F47,H31:H44,J31:J47,L31:L44,N31:N47,P31:P43,R31:R47,T31:T44,V31:V47,X31:X43,Z31:Z33)</f>
+        <v>4.762557077625571</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4456,7 +4524,7 @@
       <c r="G61" s="44"/>
       <c r="H61" s="39">
         <f ca="1">DATEDIF(TODAY(), "12/20/2018", "d")</f>
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4466,7 +4534,7 @@
       <c r="G62" s="44"/>
       <c r="H62" s="40">
         <f ca="1">L58/H61</f>
-        <v>7191.358024691358</v>
+        <v>7391.6083916083917</v>
       </c>
     </row>
   </sheetData>
@@ -4653,7 +4721,7 @@
       </c>
       <c r="D9" s="30">
         <f>'Dainandin Nond'!H50</f>
-        <v>42</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4767,7 +4835,7 @@
       </c>
       <c r="D17" s="33">
         <f>SUM(D2:D16)</f>
-        <v>1130</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4778,7 +4846,7 @@
       </c>
       <c r="D18" s="34">
         <f>AVERAGE(D2:D16)</f>
-        <v>75.333333333333329</v>
+        <v>82.533333333333331</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4787,7 +4855,7 @@
       </c>
       <c r="D19" s="42">
         <f>AVERAGE(D2:D14)</f>
-        <v>71.92307692307692</v>
+        <v>80.230769230769226</v>
       </c>
     </row>
   </sheetData>

--- a/NondVahi2018.xlsx
+++ b/NondVahi2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dainandin Nond" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="34">
   <si>
     <t>Sum</t>
   </si>
@@ -121,6 +121,9 @@
   <si>
     <t>Monthly Average</t>
   </si>
+  <si>
+    <t>34 Sadhan Shibir</t>
+  </si>
 </sst>
 </file>
 
@@ -166,17 +169,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF454545"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF454545"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="10">
@@ -431,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -464,19 +467,13 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,6 +486,15 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,10 +607,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1043000</c:v>
+                  <c:v>1513000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1057000</c:v>
+                  <c:v>587000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,9 +725,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Monthly Distribution'!$C$2:$C$16</c:f>
+              <c:f>'Monthly Distribution'!$C$2:$C$17</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>December 2017</c:v>
                 </c:pt>
@@ -766,21 +772,24 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>33 Sadhan Shibir June 2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34 Sadhan Shibir</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Monthly Distribution'!$D$2:$D$16</c:f>
+              <c:f>'Monthly Distribution'!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>131</c:v>
@@ -798,27 +807,30 @@
                   <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
@@ -908,9 +920,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Monthly Distribution'!$C$2:$C$16</c:f>
+              <c:f>'Monthly Distribution'!$C$2:$C$17</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>December 2017</c:v>
                 </c:pt>
@@ -955,21 +967,24 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>33 Sadhan Shibir June 2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34 Sadhan Shibir</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Monthly Distribution'!$D$2:$D$16</c:f>
+              <c:f>'Monthly Distribution'!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>131</c:v>
@@ -987,27 +1002,30 @@
                   <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
@@ -1079,7 +1097,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
@@ -1130,16 +1148,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1168,16 +1186,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1255,12 +1273,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.23177</cdr:x>
-      <cdr:y>0.86203</cdr:y>
+      <cdr:x>0.18496</cdr:x>
+      <cdr:y>0.85962</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.52856</cdr:x>
-      <cdr:y>0.97185</cdr:y>
+      <cdr:x>0.48175</cdr:x>
+      <cdr:y>0.96944</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1269,8 +1287,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2076886" y="4325454"/>
-          <a:ext cx="2659571" cy="551052"/>
+          <a:off x="1242040" y="3397972"/>
+          <a:ext cx="1992981" cy="434105"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1618,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView showGridLines="0" topLeftCell="N25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,11 +1900,15 @@
       <c r="E4" s="2">
         <v>43103</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
       <c r="G4" s="2">
         <v>43120</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
       <c r="I4" s="2">
         <v>43134</v>
       </c>
@@ -1952,11 +1974,15 @@
       <c r="E5" s="2">
         <v>43104</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
       <c r="G5" s="2">
         <v>43121</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
       <c r="I5" s="2">
         <v>43135</v>
       </c>
@@ -2022,11 +2048,15 @@
       <c r="E6" s="2">
         <v>43105</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
       <c r="G6" s="2">
         <v>43122</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
       <c r="I6" s="2">
         <v>43136</v>
       </c>
@@ -2092,7 +2122,9 @@
       <c r="E7" s="2">
         <v>43106</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
       <c r="G7" s="2">
         <v>43123</v>
       </c>
@@ -2164,7 +2196,9 @@
       <c r="E8" s="2">
         <v>43107</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
       <c r="G8" s="2">
         <v>43124</v>
       </c>
@@ -2236,7 +2270,9 @@
       <c r="E9" s="2">
         <v>43108</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="2">
         <v>43125</v>
       </c>
@@ -2308,11 +2344,15 @@
       <c r="E10" s="2">
         <v>43109</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="2">
         <v>43126</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="2">
         <v>43140</v>
       </c>
@@ -2384,7 +2424,9 @@
       <c r="G11" s="2">
         <v>43127</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
       <c r="I11" s="2">
         <v>43141</v>
       </c>
@@ -2456,7 +2498,9 @@
       <c r="G12" s="2">
         <v>43128</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" s="2">
         <v>43142</v>
       </c>
@@ -2666,7 +2710,9 @@
       <c r="G15" s="7">
         <v>43131</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
       <c r="I15" s="2">
         <v>43145</v>
       </c>
@@ -2876,14 +2922,14 @@
       </c>
       <c r="F19" s="4">
         <f>SUM(F2:F18)</f>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" ref="H19" si="0">SUM(H2:H18)</f>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>0</v>
@@ -2962,14 +3008,14 @@
       </c>
       <c r="F20" s="21">
         <f>AVERAGE(F2:F18)</f>
-        <v>5.5</v>
+        <v>3.6470588235294117</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="21">
         <f t="shared" ref="H20" si="9">AVERAGE(H2:H18)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>1</v>
@@ -3041,7 +3087,7 @@
       </c>
       <c r="H21" s="22">
         <f t="shared" ref="H21" si="17">F19+H19</f>
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>5</v>
@@ -3074,13 +3120,13 @@
     </row>
     <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="46"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="24">
         <f>SUM(B19,D19,F19,H19,J19,L19,N19,P19,R19,T19,V19,X19)*1000</f>
-        <v>684000</v>
+        <v>698000</v>
       </c>
       <c r="I24" s="25" t="s">
         <v>6</v>
@@ -3093,17 +3139,17 @@
       </c>
       <c r="L24" s="28">
         <f>J24-H24</f>
-        <v>1416000</v>
+        <v>1402000</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F25" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="46"/>
+      <c r="F25" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="40"/>
       <c r="H25" s="20">
         <f>AVERAGE(B2:B18,D2:D15,F2:F18,H2:H15,J2:J18,L2:L12,N2:N18,P2:P15,R2:R18,T2:T14,V2:V18,X2:X15)*1000</f>
-        <v>4196.3190184049081</v>
+        <v>3943.5028248587569</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3220,43 +3266,63 @@
       <c r="I31" s="2">
         <v>43313</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
       <c r="K31" s="2">
         <v>43330</v>
       </c>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
       <c r="M31" s="2">
         <v>43344</v>
       </c>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
       <c r="O31" s="2">
         <v>43361</v>
       </c>
-      <c r="P31" s="1"/>
+      <c r="P31" s="1">
+        <v>2</v>
+      </c>
       <c r="Q31" s="2">
         <v>43374</v>
       </c>
-      <c r="R31" s="1"/>
+      <c r="R31" s="1">
+        <v>6</v>
+      </c>
       <c r="S31" s="2">
         <v>43391</v>
       </c>
-      <c r="T31" s="1"/>
+      <c r="T31" s="1">
+        <v>3</v>
+      </c>
       <c r="U31" s="2">
         <v>43405</v>
       </c>
-      <c r="V31" s="1"/>
+      <c r="V31" s="1">
+        <v>7</v>
+      </c>
       <c r="W31" s="2">
         <v>43422</v>
       </c>
-      <c r="X31" s="1"/>
+      <c r="X31" s="1">
+        <v>2</v>
+      </c>
       <c r="Y31" s="2">
         <v>43435</v>
       </c>
-      <c r="Z31" s="1"/>
+      <c r="Z31" s="1">
+        <v>5</v>
+      </c>
       <c r="AA31" s="2">
         <v>43452</v>
       </c>
-      <c r="AB31" s="1"/>
+      <c r="AB31" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -3286,43 +3352,63 @@
       <c r="I32" s="2">
         <v>43314</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
       <c r="K32" s="2">
         <v>43331</v>
       </c>
-      <c r="L32" s="1"/>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
       <c r="M32" s="2">
         <v>43345</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
       <c r="O32" s="2">
         <v>43362</v>
       </c>
-      <c r="P32" s="1"/>
+      <c r="P32" s="1">
+        <v>2</v>
+      </c>
       <c r="Q32" s="2">
         <v>43375</v>
       </c>
-      <c r="R32" s="1"/>
+      <c r="R32" s="1">
+        <v>1</v>
+      </c>
       <c r="S32" s="2">
         <v>43392</v>
       </c>
-      <c r="T32" s="1"/>
+      <c r="T32" s="1">
+        <v>3</v>
+      </c>
       <c r="U32" s="2">
         <v>43406</v>
       </c>
-      <c r="V32" s="1"/>
+      <c r="V32" s="1">
+        <v>2</v>
+      </c>
       <c r="W32" s="2">
         <v>43423</v>
       </c>
-      <c r="X32" s="1"/>
+      <c r="X32" s="1">
+        <v>2</v>
+      </c>
       <c r="Y32" s="2">
         <v>43436</v>
       </c>
-      <c r="Z32" s="1"/>
+      <c r="Z32" s="1">
+        <v>5</v>
+      </c>
       <c r="AA32" s="2">
         <v>43453</v>
       </c>
-      <c r="AB32" s="1"/>
+      <c r="AB32" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -3352,43 +3438,63 @@
       <c r="I33" s="2">
         <v>43315</v>
       </c>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
       <c r="K33" s="2">
         <v>43332</v>
       </c>
-      <c r="L33" s="1"/>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
       <c r="M33" s="2">
         <v>43346</v>
       </c>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
       <c r="O33" s="2">
         <v>43363</v>
       </c>
-      <c r="P33" s="1"/>
+      <c r="P33" s="1">
+        <v>2</v>
+      </c>
       <c r="Q33" s="2">
         <v>43376</v>
       </c>
-      <c r="R33" s="1"/>
+      <c r="R33" s="1">
+        <v>6</v>
+      </c>
       <c r="S33" s="2">
         <v>43393</v>
       </c>
-      <c r="T33" s="1"/>
+      <c r="T33" s="1">
+        <v>5</v>
+      </c>
       <c r="U33" s="2">
         <v>43407</v>
       </c>
-      <c r="V33" s="1"/>
+      <c r="V33" s="1">
+        <v>2</v>
+      </c>
       <c r="W33" s="2">
         <v>43424</v>
       </c>
-      <c r="X33" s="1"/>
+      <c r="X33" s="1">
+        <v>2</v>
+      </c>
       <c r="Y33" s="7">
         <v>43437</v>
       </c>
-      <c r="Z33" s="8"/>
+      <c r="Z33" s="8">
+        <v>3</v>
+      </c>
       <c r="AA33" s="2">
         <v>43454</v>
       </c>
-      <c r="AB33" s="8"/>
+      <c r="AB33" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -3418,39 +3524,57 @@
       <c r="I34" s="2">
         <v>43316</v>
       </c>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
       <c r="K34" s="2">
         <v>43333</v>
       </c>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
       <c r="M34" s="2">
         <v>43347</v>
       </c>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
       <c r="O34" s="2">
         <v>43364</v>
       </c>
-      <c r="P34" s="1"/>
+      <c r="P34" s="1">
+        <v>2</v>
+      </c>
       <c r="Q34" s="2">
         <v>43377</v>
       </c>
-      <c r="R34" s="1"/>
+      <c r="R34" s="1">
+        <v>6</v>
+      </c>
       <c r="S34" s="2">
         <v>43394</v>
       </c>
-      <c r="T34" s="1"/>
+      <c r="T34" s="1">
+        <v>7</v>
+      </c>
       <c r="U34" s="2">
         <v>43408</v>
       </c>
-      <c r="V34" s="1"/>
+      <c r="V34" s="1">
+        <v>2</v>
+      </c>
       <c r="W34" s="2">
         <v>43425</v>
       </c>
-      <c r="X34" s="6"/>
+      <c r="X34" s="6">
+        <v>2</v>
+      </c>
       <c r="Y34" s="7">
         <v>43438</v>
       </c>
-      <c r="Z34" s="8"/>
+      <c r="Z34" s="8">
+        <v>3</v>
+      </c>
       <c r="AA34" s="7">
         <v>43455</v>
       </c>
@@ -3484,39 +3608,57 @@
       <c r="I35" s="2">
         <v>43317</v>
       </c>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
       <c r="K35" s="2">
         <v>43334</v>
       </c>
-      <c r="L35" s="1"/>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
       <c r="M35" s="2">
         <v>43348</v>
       </c>
-      <c r="N35" s="1"/>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
       <c r="O35" s="2">
         <v>43365</v>
       </c>
-      <c r="P35" s="1"/>
+      <c r="P35" s="1">
+        <v>2</v>
+      </c>
       <c r="Q35" s="2">
         <v>43378</v>
       </c>
-      <c r="R35" s="1"/>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
       <c r="S35" s="2">
         <v>43395</v>
       </c>
-      <c r="T35" s="1"/>
+      <c r="T35" s="1">
+        <v>3</v>
+      </c>
       <c r="U35" s="2">
         <v>43409</v>
       </c>
-      <c r="V35" s="1"/>
+      <c r="V35" s="1">
+        <v>2</v>
+      </c>
       <c r="W35" s="2">
         <v>43426</v>
       </c>
-      <c r="X35" s="6"/>
+      <c r="X35" s="6">
+        <v>2</v>
+      </c>
       <c r="Y35" s="7">
         <v>43439</v>
       </c>
-      <c r="Z35" s="41"/>
+      <c r="Z35" s="8">
+        <v>3</v>
+      </c>
       <c r="AA35" s="11"/>
       <c r="AB35" s="12"/>
     </row>
@@ -3548,39 +3690,57 @@
       <c r="I36" s="2">
         <v>43318</v>
       </c>
-      <c r="J36" s="1"/>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
       <c r="K36" s="2">
         <v>43335</v>
       </c>
-      <c r="L36" s="1"/>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
       <c r="M36" s="2">
         <v>43349</v>
       </c>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
       <c r="O36" s="2">
         <v>43366</v>
       </c>
-      <c r="P36" s="1"/>
+      <c r="P36" s="1">
+        <v>2</v>
+      </c>
       <c r="Q36" s="2">
         <v>43379</v>
       </c>
-      <c r="R36" s="1"/>
+      <c r="R36" s="1">
+        <v>9</v>
+      </c>
       <c r="S36" s="2">
         <v>43396</v>
       </c>
-      <c r="T36" s="1"/>
+      <c r="T36" s="1">
+        <v>3</v>
+      </c>
       <c r="U36" s="2">
         <v>43410</v>
       </c>
-      <c r="V36" s="1"/>
+      <c r="V36" s="1">
+        <v>2</v>
+      </c>
       <c r="W36" s="2">
         <v>43427</v>
       </c>
-      <c r="X36" s="6"/>
+      <c r="X36" s="6">
+        <v>2</v>
+      </c>
       <c r="Y36" s="7">
         <v>43440</v>
       </c>
-      <c r="Z36" s="41"/>
+      <c r="Z36" s="8">
+        <v>3</v>
+      </c>
       <c r="AA36" s="13"/>
       <c r="AB36" s="14"/>
     </row>
@@ -3612,39 +3772,57 @@
       <c r="I37" s="2">
         <v>43319</v>
       </c>
-      <c r="J37" s="1"/>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
       <c r="K37" s="2">
         <v>43336</v>
       </c>
-      <c r="L37" s="1"/>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
       <c r="M37" s="2">
         <v>43350</v>
       </c>
-      <c r="N37" s="1"/>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
       <c r="O37" s="2">
         <v>43367</v>
       </c>
-      <c r="P37" s="1"/>
+      <c r="P37" s="1">
+        <v>2</v>
+      </c>
       <c r="Q37" s="2">
         <v>43380</v>
       </c>
-      <c r="R37" s="1"/>
+      <c r="R37" s="1">
+        <v>25</v>
+      </c>
       <c r="S37" s="2">
         <v>43397</v>
       </c>
-      <c r="T37" s="1"/>
+      <c r="T37" s="1">
+        <v>3</v>
+      </c>
       <c r="U37" s="2">
         <v>43411</v>
       </c>
-      <c r="V37" s="1"/>
+      <c r="V37" s="1">
+        <v>2</v>
+      </c>
       <c r="W37" s="2">
         <v>43428</v>
       </c>
-      <c r="X37" s="6"/>
+      <c r="X37" s="6">
+        <v>10</v>
+      </c>
       <c r="Y37" s="7">
         <v>43441</v>
       </c>
-      <c r="Z37" s="41"/>
+      <c r="Z37" s="8">
+        <v>3</v>
+      </c>
       <c r="AA37" s="13"/>
       <c r="AB37" s="14"/>
     </row>
@@ -3676,39 +3854,57 @@
       <c r="I38" s="2">
         <v>43320</v>
       </c>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
       <c r="K38" s="2">
         <v>43337</v>
       </c>
-      <c r="L38" s="1"/>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
       <c r="M38" s="2">
         <v>43351</v>
       </c>
-      <c r="N38" s="1"/>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
       <c r="O38" s="2">
         <v>43368</v>
       </c>
-      <c r="P38" s="1"/>
+      <c r="P38" s="1">
+        <v>2</v>
+      </c>
       <c r="Q38" s="2">
         <v>43381</v>
       </c>
-      <c r="R38" s="1"/>
+      <c r="R38" s="1">
+        <v>7</v>
+      </c>
       <c r="S38" s="2">
         <v>43398</v>
       </c>
-      <c r="T38" s="1"/>
+      <c r="T38" s="1">
+        <v>3</v>
+      </c>
       <c r="U38" s="2">
         <v>43412</v>
       </c>
-      <c r="V38" s="1"/>
+      <c r="V38" s="1">
+        <v>2</v>
+      </c>
       <c r="W38" s="2">
         <v>43429</v>
       </c>
-      <c r="X38" s="6"/>
+      <c r="X38" s="6">
+        <v>10</v>
+      </c>
       <c r="Y38" s="7">
         <v>43442</v>
       </c>
-      <c r="Z38" s="41"/>
+      <c r="Z38" s="36">
+        <v>17</v>
+      </c>
       <c r="AA38" s="13"/>
       <c r="AB38" s="14"/>
     </row>
@@ -3740,39 +3936,57 @@
       <c r="I39" s="2">
         <v>43321</v>
       </c>
-      <c r="J39" s="1"/>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
       <c r="K39" s="2">
         <v>43338</v>
       </c>
-      <c r="L39" s="1"/>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
       <c r="M39" s="2">
         <v>43352</v>
       </c>
-      <c r="N39" s="1"/>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
       <c r="O39" s="2">
         <v>43369</v>
       </c>
-      <c r="P39" s="1"/>
+      <c r="P39" s="1">
+        <v>2</v>
+      </c>
       <c r="Q39" s="2">
         <v>43382</v>
       </c>
-      <c r="R39" s="1"/>
+      <c r="R39" s="1">
+        <v>5</v>
+      </c>
       <c r="S39" s="2">
         <v>43399</v>
       </c>
-      <c r="T39" s="1"/>
+      <c r="T39" s="1">
+        <v>3</v>
+      </c>
       <c r="U39" s="2">
         <v>43413</v>
       </c>
-      <c r="V39" s="1"/>
+      <c r="V39" s="1">
+        <v>2</v>
+      </c>
       <c r="W39" s="2">
         <v>43430</v>
       </c>
-      <c r="X39" s="6"/>
+      <c r="X39" s="6">
+        <v>2</v>
+      </c>
       <c r="Y39" s="7">
         <v>43443</v>
       </c>
-      <c r="Z39" s="41"/>
+      <c r="Z39" s="36">
+        <v>20</v>
+      </c>
       <c r="AA39" s="13"/>
       <c r="AB39" s="14"/>
     </row>
@@ -3804,39 +4018,57 @@
       <c r="I40" s="2">
         <v>43322</v>
       </c>
-      <c r="J40" s="1"/>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
       <c r="K40" s="2">
         <v>43339</v>
       </c>
-      <c r="L40" s="1"/>
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
       <c r="M40" s="2">
         <v>43353</v>
       </c>
-      <c r="N40" s="1"/>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
       <c r="O40" s="2">
         <v>43370</v>
       </c>
-      <c r="P40" s="1"/>
+      <c r="P40" s="1">
+        <v>2</v>
+      </c>
       <c r="Q40" s="2">
         <v>43383</v>
       </c>
-      <c r="R40" s="1"/>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
       <c r="S40" s="2">
         <v>43400</v>
       </c>
-      <c r="T40" s="1"/>
+      <c r="T40" s="1">
+        <v>10</v>
+      </c>
       <c r="U40" s="2">
         <v>43414</v>
       </c>
-      <c r="V40" s="1"/>
+      <c r="V40" s="1">
+        <v>10</v>
+      </c>
       <c r="W40" s="2">
         <v>43431</v>
       </c>
-      <c r="X40" s="6"/>
+      <c r="X40" s="6">
+        <v>2</v>
+      </c>
       <c r="Y40" s="7">
         <v>43444</v>
       </c>
-      <c r="Z40" s="41"/>
+      <c r="Z40" s="36">
+        <v>7</v>
+      </c>
       <c r="AA40" s="13"/>
       <c r="AB40" s="14"/>
     </row>
@@ -3868,39 +4100,57 @@
       <c r="I41" s="2">
         <v>43323</v>
       </c>
-      <c r="J41" s="1"/>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
       <c r="K41" s="2">
         <v>43340</v>
       </c>
-      <c r="L41" s="1"/>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
       <c r="M41" s="2">
         <v>43354</v>
       </c>
-      <c r="N41" s="1"/>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
       <c r="O41" s="2">
         <v>43371</v>
       </c>
-      <c r="P41" s="1"/>
+      <c r="P41" s="1">
+        <v>2</v>
+      </c>
       <c r="Q41" s="2">
         <v>43384</v>
       </c>
-      <c r="R41" s="1"/>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
       <c r="S41" s="2">
         <v>43401</v>
       </c>
-      <c r="T41" s="1"/>
+      <c r="T41" s="1">
+        <v>10</v>
+      </c>
       <c r="U41" s="2">
         <v>43415</v>
       </c>
-      <c r="V41" s="1"/>
+      <c r="V41" s="1">
+        <v>10</v>
+      </c>
       <c r="W41" s="2">
         <v>43432</v>
       </c>
-      <c r="X41" s="6"/>
+      <c r="X41" s="6">
+        <v>2</v>
+      </c>
       <c r="Y41" s="7">
         <v>43445</v>
       </c>
-      <c r="Z41" s="41"/>
+      <c r="Z41" s="36">
+        <v>3</v>
+      </c>
       <c r="AA41" s="13"/>
       <c r="AB41" s="14"/>
     </row>
@@ -3932,39 +4182,57 @@
       <c r="I42" s="2">
         <v>43324</v>
       </c>
-      <c r="J42" s="1"/>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
       <c r="K42" s="2">
         <v>43341</v>
       </c>
-      <c r="L42" s="1"/>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
       <c r="M42" s="2">
         <v>43355</v>
       </c>
-      <c r="N42" s="1"/>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
       <c r="O42" s="2">
         <v>43372</v>
       </c>
-      <c r="P42" s="1"/>
+      <c r="P42" s="1">
+        <v>2</v>
+      </c>
       <c r="Q42" s="2">
         <v>43385</v>
       </c>
-      <c r="R42" s="1"/>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
       <c r="S42" s="2">
         <v>43402</v>
       </c>
-      <c r="T42" s="1"/>
+      <c r="T42" s="1">
+        <v>1</v>
+      </c>
       <c r="U42" s="2">
         <v>43416</v>
       </c>
-      <c r="V42" s="1"/>
+      <c r="V42" s="1">
+        <v>2</v>
+      </c>
       <c r="W42" s="2">
         <v>43433</v>
       </c>
-      <c r="X42" s="6"/>
+      <c r="X42" s="6">
+        <v>2</v>
+      </c>
       <c r="Y42" s="7">
         <v>43446</v>
       </c>
-      <c r="Z42" s="41"/>
+      <c r="Z42" s="36">
+        <v>8</v>
+      </c>
       <c r="AA42" s="13"/>
       <c r="AB42" s="14"/>
     </row>
@@ -3990,43 +4258,63 @@
       <c r="G43" s="2">
         <v>43311</v>
       </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
       <c r="I43" s="2">
         <v>43325</v>
       </c>
-      <c r="J43" s="1"/>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
       <c r="K43" s="2">
         <v>43342</v>
       </c>
-      <c r="L43" s="1"/>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
       <c r="M43" s="2">
         <v>43356</v>
       </c>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
       <c r="O43" s="2">
         <v>43373</v>
       </c>
-      <c r="P43" s="1"/>
+      <c r="P43" s="1">
+        <v>2</v>
+      </c>
       <c r="Q43" s="2">
         <v>43386</v>
       </c>
-      <c r="R43" s="1"/>
+      <c r="R43" s="1">
+        <v>13</v>
+      </c>
       <c r="S43" s="2">
         <v>43403</v>
       </c>
-      <c r="T43" s="1"/>
+      <c r="T43" s="1">
+        <v>1</v>
+      </c>
       <c r="U43" s="2">
         <v>43417</v>
       </c>
-      <c r="V43" s="1"/>
+      <c r="V43" s="1">
+        <v>2</v>
+      </c>
       <c r="W43" s="2">
         <v>43434</v>
       </c>
-      <c r="X43" s="6"/>
+      <c r="X43" s="6">
+        <v>2</v>
+      </c>
       <c r="Y43" s="7">
         <v>43447</v>
       </c>
-      <c r="Z43" s="41"/>
+      <c r="Z43" s="36">
+        <v>8</v>
+      </c>
       <c r="AA43" s="13"/>
       <c r="AB43" s="14"/>
     </row>
@@ -4048,39 +4336,55 @@
       <c r="G44" s="2">
         <v>43312</v>
       </c>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
       <c r="I44" s="2">
         <v>43326</v>
       </c>
-      <c r="J44" s="6"/>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
       <c r="K44" s="2">
         <v>43343</v>
       </c>
-      <c r="L44" s="1"/>
+      <c r="L44" s="1">
+        <v>1</v>
+      </c>
       <c r="M44" s="2">
         <v>43357</v>
       </c>
-      <c r="N44" s="6"/>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
       <c r="O44" s="11"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="2">
         <v>43387</v>
       </c>
-      <c r="R44" s="6"/>
+      <c r="R44" s="6">
+        <v>5</v>
+      </c>
       <c r="S44" s="2">
         <v>43404</v>
       </c>
-      <c r="T44" s="1"/>
+      <c r="T44" s="1">
+        <v>1</v>
+      </c>
       <c r="U44" s="2">
         <v>43418</v>
       </c>
-      <c r="V44" s="6"/>
+      <c r="V44" s="6">
+        <v>2</v>
+      </c>
       <c r="W44" s="11"/>
-      <c r="X44" s="36"/>
+      <c r="X44" s="31"/>
       <c r="Y44" s="7">
         <v>43448</v>
       </c>
-      <c r="Z44" s="41"/>
+      <c r="Z44" s="36">
+        <v>10</v>
+      </c>
       <c r="AA44" s="13"/>
       <c r="AB44" s="14"/>
     </row>
@@ -4104,31 +4408,41 @@
       <c r="I45" s="2">
         <v>43327</v>
       </c>
-      <c r="J45" s="6"/>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
       <c r="K45" s="13"/>
       <c r="L45" s="14"/>
       <c r="M45" s="2">
         <v>43358</v>
       </c>
-      <c r="N45" s="6"/>
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
       <c r="O45" s="13"/>
       <c r="P45" s="14"/>
       <c r="Q45" s="2">
         <v>43388</v>
       </c>
-      <c r="R45" s="6"/>
+      <c r="R45" s="6">
+        <v>3</v>
+      </c>
       <c r="S45" s="13"/>
       <c r="T45" s="14"/>
       <c r="U45" s="2">
         <v>43419</v>
       </c>
-      <c r="V45" s="6"/>
+      <c r="V45" s="6">
+        <v>2</v>
+      </c>
       <c r="W45" s="13"/>
-      <c r="X45" s="35"/>
+      <c r="X45" s="30"/>
       <c r="Y45" s="7">
         <v>43449</v>
       </c>
-      <c r="Z45" s="41"/>
+      <c r="Z45" s="36">
+        <v>19</v>
+      </c>
       <c r="AA45" s="13"/>
       <c r="AB45" s="14"/>
     </row>
@@ -4152,31 +4466,41 @@
       <c r="I46" s="2">
         <v>43328</v>
       </c>
-      <c r="J46" s="6"/>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
       <c r="K46" s="13"/>
       <c r="L46" s="14"/>
       <c r="M46" s="2">
         <v>43359</v>
       </c>
-      <c r="N46" s="6"/>
+      <c r="N46" s="1">
+        <v>1</v>
+      </c>
       <c r="O46" s="13"/>
       <c r="P46" s="14"/>
       <c r="Q46" s="2">
         <v>43389</v>
       </c>
-      <c r="R46" s="6"/>
+      <c r="R46" s="6">
+        <v>3</v>
+      </c>
       <c r="S46" s="13"/>
       <c r="T46" s="14"/>
       <c r="U46" s="2">
         <v>43420</v>
       </c>
-      <c r="V46" s="6"/>
+      <c r="V46" s="6">
+        <v>2</v>
+      </c>
       <c r="W46" s="13"/>
-      <c r="X46" s="35"/>
+      <c r="X46" s="30"/>
       <c r="Y46" s="7">
         <v>43450</v>
       </c>
-      <c r="Z46" s="41"/>
+      <c r="Z46" s="36">
+        <v>2</v>
+      </c>
       <c r="AA46" s="13"/>
       <c r="AB46" s="14"/>
     </row>
@@ -4200,31 +4524,41 @@
       <c r="I47" s="2">
         <v>43329</v>
       </c>
-      <c r="J47" s="6"/>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
       <c r="K47" s="15"/>
       <c r="L47" s="16"/>
       <c r="M47" s="2">
         <v>43360</v>
       </c>
-      <c r="N47" s="6"/>
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
       <c r="O47" s="15"/>
       <c r="P47" s="16"/>
       <c r="Q47" s="2">
         <v>43390</v>
       </c>
-      <c r="R47" s="6"/>
+      <c r="R47" s="6">
+        <v>3</v>
+      </c>
       <c r="S47" s="15"/>
       <c r="T47" s="16"/>
       <c r="U47" s="2">
         <v>43421</v>
       </c>
-      <c r="V47" s="6"/>
+      <c r="V47" s="6">
+        <v>2</v>
+      </c>
       <c r="W47" s="15"/>
-      <c r="X47" s="37"/>
+      <c r="X47" s="32"/>
       <c r="Y47" s="7">
         <v>43451</v>
       </c>
-      <c r="Z47" s="41"/>
+      <c r="Z47" s="36">
+        <v>3</v>
+      </c>
       <c r="AA47" s="15"/>
       <c r="AB47" s="16"/>
     </row>
@@ -4255,77 +4589,77 @@
       </c>
       <c r="H48" s="4">
         <f>SUM(H31:H47)</f>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" ref="J48" si="22">SUM(J31:J47)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" ref="L48" si="23">SUM(L31:L47)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N48" s="4">
         <f t="shared" ref="N48" si="24">SUM(N31:N47)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="P48" s="4">
         <f t="shared" ref="P48" si="25">SUM(P31:P47)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="R48" s="4">
         <f t="shared" ref="R48" si="26">SUM(R31:R47)</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="S48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="T48" s="4">
         <f t="shared" ref="T48" si="27">SUM(T31:T47)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="U48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="V48" s="4">
         <f t="shared" ref="V48" si="28">SUM(V31:V47)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="W48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="X48" s="4">
         <f t="shared" ref="X48" si="29">SUM(X31:X47)</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Y48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Z48" s="4">
         <f t="shared" ref="Z48:AB48" si="30">SUM(Z31:Z47)</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="AA48" s="9" t="s">
         <v>0</v>
       </c>
       <c r="AB48" s="9">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
@@ -4355,77 +4689,77 @@
       </c>
       <c r="H49" s="21">
         <f>AVERAGE(H31:H47)</f>
-        <v>6.833333333333333</v>
+        <v>6</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J49" s="21" t="e">
+      <c r="J49" s="21">
         <f t="shared" ref="J49" si="31">AVERAGE(J31:J47)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L49" s="21" t="e">
+      <c r="L49" s="21">
         <f t="shared" ref="L49" si="32">AVERAGE(L31:L47)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N49" s="21" t="e">
+      <c r="N49" s="21">
         <f t="shared" ref="N49" si="33">AVERAGE(N31:N47)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P49" s="21" t="e">
+      <c r="P49" s="21">
         <f t="shared" ref="P49" si="34">AVERAGE(P31:P47)</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="Q49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R49" s="21" t="e">
+      <c r="R49" s="21">
         <f t="shared" ref="R49" si="35">AVERAGE(R31:R47)</f>
-        <v>#DIV/0!</v>
+        <v>5.5294117647058822</v>
       </c>
       <c r="S49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="T49" s="21" t="e">
+      <c r="T49" s="21">
         <f t="shared" ref="T49" si="36">AVERAGE(T31:T47)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="U49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="V49" s="21" t="e">
+      <c r="V49" s="21">
         <f t="shared" ref="V49" si="37">AVERAGE(V31:V47)</f>
-        <v>#DIV/0!</v>
+        <v>3.2352941176470589</v>
       </c>
       <c r="W49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="X49" s="21" t="e">
+      <c r="X49" s="21">
         <f t="shared" ref="X49:AB49" si="38">AVERAGE(X31:X47)</f>
-        <v>#DIV/0!</v>
+        <v>3.2307692307692308</v>
       </c>
       <c r="Y49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z49" s="21" t="e">
+      <c r="Z49" s="21">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>7.1764705882352944</v>
       </c>
       <c r="AA49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AB49" s="21" t="e">
+      <c r="AB49" s="21">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
@@ -4441,56 +4775,56 @@
       </c>
       <c r="H50" s="22">
         <f>F48+H48</f>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K50" s="22" t="s">
         <v>5</v>
       </c>
       <c r="L50" s="22">
         <f t="shared" ref="L50" si="39">J48+L48</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O50" s="22" t="s">
         <v>5</v>
       </c>
       <c r="P50" s="22">
         <f t="shared" ref="P50" si="40">N48+P48</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="S50" s="22" t="s">
         <v>5</v>
       </c>
       <c r="T50" s="22">
         <f t="shared" ref="T50" si="41">R48+T48</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="W50" s="22" t="s">
         <v>5</v>
       </c>
       <c r="X50" s="22">
         <f t="shared" ref="X50" si="42">V48+X48</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AA50" s="22" t="s">
         <v>5</v>
       </c>
       <c r="AB50" s="22">
         <f>Z48+AB48</f>
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L54" s="38"/>
+      <c r="L54" s="33"/>
     </row>
     <row r="57" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F58" s="45" t="s">
+      <c r="F58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="46"/>
+      <c r="G58" s="40"/>
       <c r="H58" s="24">
         <f>SUM(D21,H21,L21,P21,T21,X21,D50,H50,L50,P50,T50,X50,AB50)*1000</f>
-        <v>1043000</v>
+        <v>1513000</v>
       </c>
       <c r="I58" s="25" t="s">
         <v>6</v>
@@ -4503,38 +4837,38 @@
       </c>
       <c r="L58" s="28">
         <f>J58-H58</f>
-        <v>1057000</v>
+        <v>587000</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F59" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G59" s="46"/>
+      <c r="F59" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="40"/>
       <c r="H59" s="20">
         <f>AVERAGE(B4:B18,D1:D15,F2:F18,H2:H15,J2:J18,L2:L12,N2:N18,P2:P15,R2:R18,T2:T14,V2:V18,X2:X15,B31:B47,D31:D43,F31:F47,H31:H44,J31:J47,L31:L44,N31:N47,P31:P43,R31:R47,T31:T44,V31:V47,X31:X43,Z31:Z33)</f>
-        <v>4.762557077625571</v>
+        <v>3.8694444444444445</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G61" s="44"/>
-      <c r="H61" s="39">
-        <f ca="1">DATEDIF(TODAY(), "12/20/2018", "d")</f>
-        <v>143</v>
+      <c r="G61" s="38"/>
+      <c r="H61" s="34">
+        <f ca="1">DATEDIF(TODAY(), "12/21/2018", "d")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F62" s="43" t="s">
+      <c r="F62" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G62" s="44"/>
-      <c r="H62" s="40">
+      <c r="G62" s="38"/>
+      <c r="H62" s="35" t="e">
         <f ca="1">L58/H61</f>
-        <v>7391.6083916083917</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -4576,17 +4910,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4604,263 +4939,290 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="41">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41">
         <v>2017</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="41">
         <f>'Dainandin Nond'!D21</f>
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30">
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="41">
+        <v>2</v>
+      </c>
+      <c r="B3" s="41">
         <v>2018</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="41">
         <f>'Dainandin Nond'!H21</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
-        <v>3</v>
-      </c>
-      <c r="B4" s="30">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="41">
+        <v>3</v>
+      </c>
+      <c r="B4" s="41">
         <v>2018</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="41">
         <f>'Dainandin Nond'!L21</f>
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="41">
         <v>4</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="41">
         <v>2018</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="41">
         <f>'Dainandin Nond'!P21</f>
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="41">
         <v>5</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="41">
         <v>2018</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="41">
         <f>'Dainandin Nond'!T21</f>
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="41">
         <v>6</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="41">
         <v>2018</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="41">
         <f>'Dainandin Nond'!X21</f>
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="41">
         <v>7</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="41">
         <v>2018</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="41">
         <f>'Dainandin Nond'!D50</f>
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="41">
         <v>8</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="41">
         <v>2018</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="41">
         <f>'Dainandin Nond'!H50</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="41">
+        <v>9</v>
+      </c>
+      <c r="B10" s="41">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="41">
+        <f>'Dainandin Nond'!L50</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="41">
+        <v>10</v>
+      </c>
+      <c r="B11" s="41">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="41">
+        <f>'Dainandin Nond'!P50</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="41">
+        <v>11</v>
+      </c>
+      <c r="B12" s="41">
+        <v>2018</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="41">
+        <f>'Dainandin Nond'!T50</f>
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
-        <v>9</v>
-      </c>
-      <c r="B10" s="30">
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="41">
+        <v>12</v>
+      </c>
+      <c r="B13" s="41">
         <v>2018</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="30">
-        <f>'Dainandin Nond'!L50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
-        <v>10</v>
-      </c>
-      <c r="B11" s="30">
+      <c r="C13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="41">
+        <f>'Dainandin Nond'!X50</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="41">
+        <v>13</v>
+      </c>
+      <c r="B14" s="41">
         <v>2018</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="30">
-        <f>'Dainandin Nond'!P50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
-        <v>11</v>
-      </c>
-      <c r="B12" s="30">
+      <c r="C14" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="41">
+        <f>'Dainandin Nond'!AB50</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="41">
+        <v>14</v>
+      </c>
+      <c r="B15" s="41">
         <v>2018</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="30">
-        <f>'Dainandin Nond'!T50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
-        <v>12</v>
-      </c>
-      <c r="B13" s="30">
+      <c r="C15" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="41">
+        <v>15</v>
+      </c>
+      <c r="B16" s="41">
         <v>2018</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="30">
-        <f>'Dainandin Nond'!X50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <v>13</v>
-      </c>
-      <c r="B14" s="30">
+      <c r="C16" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="41">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="41">
+        <v>16</v>
+      </c>
+      <c r="B17" s="41">
         <v>2018</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="30">
-        <f>'Dainandin Nond'!AB50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
-        <v>14</v>
-      </c>
-      <c r="B15" s="30">
-        <v>2018</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="30">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
-        <v>15</v>
-      </c>
-      <c r="B16" s="30">
-        <v>2018</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="30">
+      <c r="C17" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="41">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="32" t="s">
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="33">
-        <f>SUM(D2:D16)</f>
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="34">
-        <f>AVERAGE(D2:D16)</f>
-        <v>82.533333333333331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="32" t="s">
+      <c r="D18" s="44">
+        <f>SUM(D2:D17)</f>
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="45">
+        <f>AVERAGE(D2:D17)</f>
+        <v>115.8125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D20" s="47">
         <f>AVERAGE(D2:D14)</f>
-        <v>80.230769230769226</v>
+        <v>116.38461538461539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="49">
+        <f>2100-D18</f>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7 Sensitivity: Internal &amp; Restricted</oddFooter>
   </headerFooter>
@@ -4938,6 +5300,10 @@
               <xm:f>'Monthly Distribution'!D16:D16</xm:f>
               <xm:sqref>C16</xm:sqref>
             </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Monthly Distribution'!D17:D17</xm:f>
+              <xm:sqref>C17</xm:sqref>
+            </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
       </x14:sparklineGroups>
